--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="/M0aYMYJNav7HCqAtE9Wd0DpJO2+PtLi9Uf9Lco8U7E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="mVmwD/d4aAsSIcH7m/gtYXJNc7weRfadBTRA5BHXFJQ="/>
     </ext>
   </extLst>
 </workbook>
@@ -114,14 +114,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjEy+UuCFMd3I95eEnXFIwLqv4BzA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjK/gRnrXUkH4k+J4VcGz9/gtmp+w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="291">
   <si>
     <t>Date</t>
   </si>
@@ -754,6 +754,15 @@
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>GROUPE</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -1470,7 +1479,9 @@
     <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
@@ -5079,10 +5090,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -5100,7 +5111,7 @@
     <col customWidth="1" min="15" max="15" width="24.13"/>
     <col customWidth="1" min="16" max="16" width="14.38"/>
     <col customWidth="1" min="19" max="19" width="27.0"/>
-    <col customWidth="1" min="21" max="21" width="24.63"/>
+    <col customWidth="1" min="21" max="21" width="11.13"/>
     <col customWidth="1" min="22" max="22" width="13.88"/>
     <col customWidth="1" min="25" max="25" width="24.88"/>
     <col customWidth="1" min="27" max="27" width="20.75"/>
@@ -5523,8 +5534,8 @@
       <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>9</v>
+      <c r="D3" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>9</v>
@@ -5574,9 +5585,7 @@
       <c r="T3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="U3" s="41"/>
       <c r="V3" s="40" t="s">
         <v>9</v>
       </c>
@@ -5717,209 +5726,81 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO4" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>9</v>
@@ -5927,11 +5808,9 @@
       <c r="C5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="40"/>
       <c r="E5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>9</v>
@@ -5961,7 +5840,7 @@
         <v>9</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="P5" s="40" t="s">
         <v>9</v>
@@ -5973,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="T5" s="40" t="s">
         <v>9</v>
@@ -6006,13 +5885,13 @@
         <v>9</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="AE5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="40" t="s">
         <v>9</v>
@@ -6048,7 +5927,7 @@
         <v>9</v>
       </c>
       <c r="AR5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="AS5" s="40" t="s">
         <v>9</v>
@@ -6057,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="AU5" s="40" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="AV5" s="40" t="s">
         <v>9</v>
@@ -6090,1010 +5969,1080 @@
         <v>9</v>
       </c>
       <c r="BF5" s="40" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="BG5" s="40" t="s">
         <v>9</v>
       </c>
       <c r="BH5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO5" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="BI5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO5" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="B6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="F6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="AV6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="BI6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="T7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="W7" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="X7" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Y7" s="18" t="str">
-        <f t="shared" ref="Y7:Y9" si="1">CONCATENATE(UPPER(AA7),REPT(".",30-LEN(AA7)))</f>
-        <v>EQU.RT.EQU.001.CRE.01.........</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>110.0</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK7" s="48">
-        <v>44920.0</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>10000.0</v>
-      </c>
-      <c r="AM7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN7" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO7" s="48">
-        <v>45651.0</v>
-      </c>
-      <c r="AP7" s="19">
-        <v>10000.0</v>
-      </c>
-      <c r="AQ7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT7" s="49" t="str">
-        <f t="shared" ref="AT7:AT9" si="2">Y7</f>
-        <v>EQU.RT.EQU.001.CRE.01.........</v>
-      </c>
-      <c r="AU7" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AX7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ7" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA7" s="19">
-        <v>100000.0</v>
-      </c>
-      <c r="BB7" s="48">
-        <v>49303.0</v>
-      </c>
-      <c r="BC7" s="19">
-        <v>1000000.0</v>
-      </c>
-      <c r="BD7" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="BE7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BF7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BG7" s="48">
-        <v>44920.0</v>
-      </c>
-      <c r="BH7" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="BI7" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BJ7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="BK7" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL7" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM7" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN7" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="BO7" s="50" t="s">
-        <v>234</v>
+      <c r="B7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="21">
-        <v>1000.0</v>
+        <v>214</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>215</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="47">
-        <v>1000.0</v>
-      </c>
-      <c r="K8" s="47">
-        <v>2000.0</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="M8" s="47">
-        <v>3000.0</v>
+        <v>219</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>215</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="W8" s="21">
         <v>1.0</v>
       </c>
       <c r="X8" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Y8" s="18" t="str">
+        <f t="shared" ref="Y8:Y10" si="1">CONCATENATE(UPPER(AA8),REPT(".",30-LEN(AA8)))</f>
+        <v>EQU.RT.EQU.001.CRE.01.........</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>110.0</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK8" s="48">
+        <v>44920.0</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>10000.0</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN8" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO8" s="48">
+        <v>45651.0</v>
+      </c>
+      <c r="AP8" s="19">
+        <v>10000.0</v>
+      </c>
+      <c r="AQ8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT8" s="49" t="str">
+        <f t="shared" ref="AT8:AT10" si="2">Y8</f>
+        <v>EQU.RT.EQU.001.CRE.01.........</v>
+      </c>
+      <c r="AU8" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ8" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA8" s="19">
+        <v>100000.0</v>
+      </c>
+      <c r="BB8" s="48">
+        <v>49303.0</v>
+      </c>
+      <c r="BC8" s="19">
+        <v>1000000.0</v>
+      </c>
+      <c r="BD8" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE8" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="BF8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG8" s="48">
+        <v>44920.0</v>
+      </c>
+      <c r="BH8" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ8" s="19">
+        <v>1000.0</v>
+      </c>
+      <c r="BK8" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL8" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="BM8" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="BN8" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO8" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1000.0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="47">
+        <v>1000.0</v>
+      </c>
+      <c r="K9" s="47">
+        <v>2000.0</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="47">
+        <v>3000.0</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="T9" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="W9" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="X9" s="21">
         <v>2.0</v>
       </c>
-      <c r="Y8" s="18" t="str">
+      <c r="Y9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
-      <c r="Z8" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA8" s="19" t="s">
+      <c r="Z9" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>1001.0</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>120.0</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF9" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AB8" s="19">
-        <v>1001.0</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>120.0</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG8" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AK8" s="52">
+      <c r="AH9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK9" s="52">
         <v>43922.0</v>
       </c>
-      <c r="AL8" s="19">
+      <c r="AL9" s="19">
         <v>20000.0</v>
       </c>
-      <c r="AM8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN8" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO8" s="52">
+      <c r="AM9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO9" s="52">
         <v>44652.0</v>
       </c>
-      <c r="AP8" s="19">
+      <c r="AP9" s="19">
         <v>20000.0</v>
       </c>
-      <c r="AQ8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT8" s="49" t="str">
+      <c r="AQ9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT9" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
-      <c r="AU8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AW8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AX8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ8" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA8" s="19">
+      <c r="AU9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ9" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA9" s="19">
         <v>110000.0</v>
       </c>
-      <c r="BB8" s="52">
+      <c r="BB9" s="52">
         <v>48305.0</v>
       </c>
-      <c r="BC8" s="19">
+      <c r="BC9" s="19">
         <v>2000000.0</v>
       </c>
-      <c r="BD8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE8" s="19">
+      <c r="BD9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE9" s="19">
         <v>2.0</v>
       </c>
-      <c r="BF8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BG8" s="52">
+      <c r="BF9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG9" s="52">
         <v>44652.0</v>
       </c>
-      <c r="BH8" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="BI8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BJ8" s="19">
+      <c r="BH9" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ9" s="19">
         <v>1001.0</v>
       </c>
-      <c r="BK8" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="BL8" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM8" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN8" s="50" t="s">
+      <c r="BK9" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL9" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="BO8" s="50" t="s">
+      <c r="BM9" s="50" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="BN9" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO9" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="21">
         <v>1001.0</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="47">
+      <c r="C10" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="47">
         <v>1001.0</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K10" s="47">
         <v>2001.0</v>
       </c>
-      <c r="L9" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="M9" s="47">
+      <c r="L10" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="47">
         <v>3001.0</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="P9" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="T9" s="21">
+      <c r="N10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="T10" s="21">
         <v>0.0</v>
       </c>
-      <c r="U9" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="W9" s="21">
+      <c r="U10" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="W10" s="21">
         <v>1.0</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X10" s="21">
         <v>3.0</v>
       </c>
-      <c r="Y9" s="18" t="str">
+      <c r="Y10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
-      <c r="Z9" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB9" s="19">
+      <c r="Z10" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA10" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB10" s="19">
         <v>1003.0</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC10" s="19">
         <v>50.0</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD10" s="19">
         <v>150.0</v>
       </c>
-      <c r="AE9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AE10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF10" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AJ9" s="19" t="s">
+      <c r="AG10" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AK9" s="52">
+      <c r="AH10" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK10" s="52">
         <v>43101.0</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL10" s="19">
         <v>40000.0</v>
       </c>
-      <c r="AM9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN9" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO9" s="52">
+      <c r="AM10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO10" s="52">
         <v>43831.0</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AP10" s="19">
         <v>40000.0</v>
       </c>
-      <c r="AQ9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AS9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT9" s="49" t="str">
+      <c r="AQ10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT10" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
-      <c r="AU9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AW9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AX9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AY9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ9" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="BA9" s="19">
+      <c r="AU10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ10" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA10" s="19">
         <v>220000.0</v>
       </c>
-      <c r="BB9" s="52">
+      <c r="BB10" s="52">
         <v>47484.0</v>
       </c>
-      <c r="BC9" s="19">
+      <c r="BC10" s="19">
         <v>4000000.0</v>
       </c>
-      <c r="BD9" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE9" s="19">
+      <c r="BD10" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE10" s="19">
         <v>3.0</v>
       </c>
-      <c r="BF9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BG9" s="52">
+      <c r="BF10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG10" s="52">
         <v>43831.0</v>
       </c>
-      <c r="BH9" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="BI9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BJ9" s="19">
+      <c r="BH10" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BJ10" s="19">
         <v>1003.0</v>
       </c>
-      <c r="BK9" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL9" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM9" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN9" s="50" t="s">
+      <c r="BK10" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="BL10" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="BO9" s="50" t="s">
+      <c r="BM10" s="50" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="21">
-        <v>1002.0</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AY10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
+      <c r="BN10" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO10" s="50" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B11" s="21">
-        <v>1003.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="N11" s="54" t="s">
-        <v>217</v>
-      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>217</v>
-      </c>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
       <c r="U11" s="53"/>
@@ -7114,9 +7063,7 @@
       <c r="AJ11" s="53"/>
       <c r="AK11" s="53"/>
       <c r="AL11" s="53"/>
-      <c r="AM11" s="55" t="s">
-        <v>217</v>
-      </c>
+      <c r="AM11" s="55"/>
       <c r="AN11" s="53"/>
       <c r="AO11" s="53"/>
       <c r="AP11" s="53"/>
@@ -7126,29 +7073,19 @@
       <c r="AT11" s="53"/>
       <c r="AU11" s="53"/>
       <c r="AV11" s="53"/>
-      <c r="AW11" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX11" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AY11" s="55" t="s">
-        <v>217</v>
-      </c>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
       <c r="AZ11" s="54"/>
       <c r="BA11" s="53"/>
       <c r="BB11" s="53"/>
       <c r="BC11" s="53"/>
       <c r="BD11" s="53"/>
       <c r="BE11" s="53"/>
-      <c r="BF11" s="55" t="s">
-        <v>217</v>
-      </c>
+      <c r="BF11" s="55"/>
       <c r="BG11" s="53"/>
       <c r="BH11" s="53"/>
-      <c r="BI11" s="55" t="s">
-        <v>217</v>
-      </c>
+      <c r="BI11" s="55"/>
       <c r="BJ11" s="53"/>
       <c r="BK11" s="53"/>
       <c r="BL11" s="54"/>
@@ -7157,8 +7094,12 @@
       <c r="BO11" s="54"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1003.0</v>
+      </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -7364,11 +7305,73 @@
       <c r="BO14" s="54"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="55"/>
+      <c r="BG15" s="53"/>
+      <c r="BH15" s="53"/>
+      <c r="BI15" s="55"/>
+      <c r="BJ15" s="53"/>
+      <c r="BK15" s="53"/>
+      <c r="BL15" s="54"/>
+      <c r="BM15" s="54"/>
+      <c r="BN15" s="54"/>
+      <c r="BO15" s="54"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56"/>
@@ -8806,6 +8809,7 @@
       <c r="J220" s="49"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="56"/>
       <c r="B221" s="49"/>
       <c r="F221" s="49"/>
       <c r="G221" s="49"/>
@@ -13484,6 +13488,12 @@
       <c r="F1000" s="49"/>
       <c r="G1000" s="49"/>
       <c r="J1000" s="49"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="B1001" s="49"/>
+      <c r="F1001" s="49"/>
+      <c r="G1001" s="49"/>
+      <c r="J1001" s="49"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -13572,7 +13582,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="60"/>
@@ -13581,7 +13591,7 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="60"/>
@@ -13590,7 +13600,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
@@ -15046,7 +15056,7 @@
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
     <col customWidth="1" min="3" max="3" width="9.13"/>
-    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
     <col customWidth="1" min="5" max="5" width="12.63"/>
     <col customWidth="1" min="6" max="6" width="19.0"/>
   </cols>
@@ -15098,7 +15108,7 @@
       <c r="B2" s="59"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
@@ -15115,7 +15125,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="60"/>
@@ -15125,19 +15135,19 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="60"/>
       <c r="D5" s="65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
@@ -15147,99 +15157,103 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B10" s="19">
         <v>1004.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E10" s="19">
         <v>40.0</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" s="19">
         <v>1004.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+        <v>278</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56"/>
@@ -16728,56 +16742,56 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="65"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18213,13 +18227,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="67" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -19253,7 +19267,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -19294,19 +19308,19 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" s="42"/>
     </row>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="295">
   <si>
     <t>Date</t>
   </si>
@@ -765,6 +765,9 @@
     <t>GROUPE</t>
   </si>
   <si>
+    <t>CRITICITE</t>
+  </si>
+  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -846,6 +849,9 @@
     <t>TNR</t>
   </si>
   <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
     <t>DEFAUT</t>
   </si>
   <si>
@@ -900,6 +906,9 @@
     <t>OBSERVATION 02</t>
   </si>
   <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
     <t>CLI.RT.EQU.001.LEC.01</t>
   </si>
   <si>
@@ -949,6 +958,9 @@
   </si>
   <si>
     <t>UPD.OBSERVATION 03</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
   </si>
   <si>
     <t>CLI.UPD.RT.EQU.001.MAJ.01</t>
@@ -5761,7 +5773,9 @@
       <c r="AC4" s="40"/>
       <c r="AD4" s="40"/>
       <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
+      <c r="AF4" s="41" t="s">
+        <v>207</v>
+      </c>
       <c r="AG4" s="40"/>
       <c r="AH4" s="40"/>
       <c r="AI4" s="40"/>
@@ -5786,7 +5800,9 @@
       <c r="BB4" s="40"/>
       <c r="BC4" s="40"/>
       <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
+      <c r="BE4" s="41" t="s">
+        <v>208</v>
+      </c>
       <c r="BF4" s="40"/>
       <c r="BG4" s="40"/>
       <c r="BH4" s="40"/>
@@ -5800,7 +5816,7 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>9</v>
@@ -6001,7 +6017,7 @@
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>9</v>
@@ -6013,7 +6029,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>9</v>
@@ -6043,7 +6059,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>9</v>
@@ -6055,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T6" s="40" t="s">
         <v>9</v>
@@ -6088,13 +6104,13 @@
         <v>9</v>
       </c>
       <c r="AD6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AE6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="AF6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG6" s="40" t="s">
         <v>9</v>
@@ -6130,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="AR6" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AS6" s="40" t="s">
         <v>9</v>
@@ -6139,46 +6155,46 @@
         <v>9</v>
       </c>
       <c r="AU6" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="AV6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="40" t="s">
-        <v>210</v>
-      </c>
       <c r="BG6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="BH6" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BI6" s="40" t="s">
         <v>9</v>
@@ -6204,7 +6220,7 @@
     </row>
     <row r="7">
       <c r="A7" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>9</v>
@@ -6407,70 +6423,70 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J8" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>215</v>
-      </c>
       <c r="K8" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L8" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>219</v>
-      </c>
       <c r="O8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="P8" s="47" t="s">
+      <c r="Q8" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>219</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W8" s="21">
         <v>1.0</v>
@@ -6483,10 +6499,10 @@
         <v>EQU.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB8" s="19">
         <v>1000.0</v>
@@ -6498,22 +6514,22 @@
         <v>110.0</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AK8" s="48">
         <v>44920.0</v>
@@ -6522,10 +6538,10 @@
         <v>10000.0</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO8" s="48">
         <v>45651.0</v>
@@ -6534,35 +6550,35 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AT8" s="49" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>EQU.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="AU8" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV8" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AV8" s="19" t="s">
-        <v>232</v>
-      </c>
       <c r="AW8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ8" s="47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6574,69 +6590,69 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE8" s="19">
-        <v>1.0</v>
+        <v>234</v>
+      </c>
+      <c r="BE8" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="BF8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG8" s="48">
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ8" s="19">
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BL8" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BM8" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BN8" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BO8" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J9" s="47">
         <v>1000.0</v>
@@ -6645,37 +6661,37 @@
         <v>2000.0</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M9" s="47">
         <v>3000.0</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P9" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q9" s="19" t="s">
-        <v>219</v>
-      </c>
       <c r="R9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
@@ -6688,10 +6704,10 @@
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6703,22 +6719,22 @@
         <v>120.0</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF9" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK9" s="52">
         <v>43922.0</v>
@@ -6727,10 +6743,10 @@
         <v>20000.0</v>
       </c>
       <c r="AM9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO9" s="52">
         <v>44652.0</v>
@@ -6739,35 +6755,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT9" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ9" s="51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6779,69 +6795,69 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE9" s="19">
-        <v>2.0</v>
+        <v>233</v>
+      </c>
+      <c r="BE9" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="BF9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG9" s="52">
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ9" s="19">
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BL9" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BM9" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BN9" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BO9" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J10" s="47">
         <v>1001.0</v>
@@ -6850,37 +6866,37 @@
         <v>2001.0</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M10" s="47">
         <v>3001.0</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P10" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q10" s="19" t="s">
-        <v>219</v>
-      </c>
       <c r="R10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -6893,10 +6909,10 @@
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -6908,22 +6924,22 @@
         <v>150.0</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF10" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AK10" s="52">
         <v>43101.0</v>
@@ -6932,10 +6948,10 @@
         <v>40000.0</v>
       </c>
       <c r="AM10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO10" s="52">
         <v>43831.0</v>
@@ -6944,35 +6960,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT10" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AZ10" s="51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -6984,45 +7000,45 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE10" s="19">
-        <v>3.0</v>
+        <v>233</v>
+      </c>
+      <c r="BE10" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="BF10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG10" s="52">
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ10" s="19">
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="BL10" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BM10" s="50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BN10" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BO10" s="50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7095,7 +7111,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -13582,7 +13598,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="60"/>
@@ -13591,7 +13607,7 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="60"/>
@@ -13600,7 +13616,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
@@ -15108,7 +15124,7 @@
       <c r="B2" s="59"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
@@ -15125,7 +15141,7 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="60"/>
@@ -15135,19 +15151,19 @@
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="60"/>
       <c r="D5" s="65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
@@ -15157,102 +15173,102 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B10" s="19">
         <v>1004.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E10" s="19">
         <v>40.0</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B11" s="19">
         <v>1004.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -16742,56 +16758,56 @@
     </row>
     <row r="4">
       <c r="A4" s="59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
     </row>
     <row r="5">
       <c r="A5" s="59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="65"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18227,13 +18243,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="67" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -19267,7 +19283,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="38" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -19308,19 +19324,19 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" s="42"/>
     </row>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -825,6 +825,9 @@
     <t>EQU.RT.EQU.001.CRE.01</t>
   </si>
   <si>
+    <t>ATTENTE REPONSE MOE</t>
+  </si>
+  <si>
     <t>PEREETFILS</t>
   </si>
   <si>
@@ -940,9 +943,6 @@
   </si>
   <si>
     <t>EQU.RT.EQU.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.GROUPE03</t>
   </si>
   <si>
     <t>UPD.PEREETFILS</t>
@@ -3403,6 +3403,7 @@
       <c r="E34" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
@@ -5127,6 +5128,7 @@
     <col customWidth="1" min="22" max="22" width="13.88"/>
     <col customWidth="1" min="25" max="25" width="24.88"/>
     <col customWidth="1" min="27" max="27" width="20.75"/>
+    <col customWidth="1" min="32" max="32" width="21.38"/>
     <col customWidth="1" min="40" max="40" width="15.13"/>
     <col customWidth="1" min="46" max="46" width="24.88"/>
     <col customWidth="1" min="52" max="52" width="10.0"/>
@@ -6482,7 +6484,7 @@
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="19" t="s">
         <v>224</v>
       </c>
       <c r="V8" s="19" t="s">
@@ -6516,20 +6518,20 @@
       <c r="AE8" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AF8" s="19" t="s">
-        <v>224</v>
+      <c r="AF8" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK8" s="48">
         <v>44920.0</v>
@@ -6541,7 +6543,7 @@
         <v>220</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO8" s="48">
         <v>45651.0</v>
@@ -6550,23 +6552,23 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AT8" s="49" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>EQU.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="AU8" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV8" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="AV8" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="AW8" s="19" t="s">
         <v>220</v>
@@ -6578,7 +6580,7 @@
         <v>220</v>
       </c>
       <c r="AZ8" s="47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6590,10 +6592,10 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BF8" s="19" t="s">
         <v>220</v>
@@ -6602,7 +6604,7 @@
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BI8" s="19" t="s">
         <v>220</v>
@@ -6611,36 +6613,36 @@
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BL8" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BM8" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BN8" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BO8" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F9" s="45" t="s">
         <v>220</v>
@@ -6670,7 +6672,7 @@
         <v>220</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P9" s="51" t="s">
         <v>221</v>
@@ -6682,16 +6684,16 @@
         <v>220</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
-      <c r="U9" s="25" t="s">
-        <v>246</v>
+      <c r="U9" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
@@ -6704,10 +6706,10 @@
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6721,20 +6723,20 @@
       <c r="AE9" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AF9" s="19" t="s">
-        <v>246</v>
+      <c r="AF9" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK9" s="52">
         <v>43922.0</v>
@@ -6746,7 +6748,7 @@
         <v>220</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO9" s="52">
         <v>44652.0</v>
@@ -6755,23 +6757,23 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AT9" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AW9" s="19" t="s">
         <v>220</v>
@@ -6783,7 +6785,7 @@
         <v>220</v>
       </c>
       <c r="AZ9" s="51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6795,10 +6797,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BF9" s="19" t="s">
         <v>220</v>
@@ -6807,7 +6809,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BI9" s="19" t="s">
         <v>220</v>
@@ -6816,36 +6818,36 @@
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BL9" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BM9" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BN9" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BO9" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F10" s="45" t="s">
         <v>220</v>
@@ -6875,7 +6877,7 @@
         <v>220</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P10" s="51" t="s">
         <v>221</v>
@@ -6887,16 +6889,16 @@
         <v>220</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
-      <c r="U10" s="25" t="s">
-        <v>263</v>
+      <c r="U10" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -6909,10 +6911,10 @@
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -6926,8 +6928,8 @@
       <c r="AE10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AF10" s="19" t="s">
-        <v>267</v>
+      <c r="AF10" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="AG10" s="19" t="s">
         <v>268</v>
@@ -6960,23 +6962,23 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AT10" s="49" t="str">
         <f t="shared" si="2"/>
         <v>EQU.RT.EQU.001.MAJ.01.........</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AW10" s="19" t="s">
         <v>220</v>
@@ -6988,7 +6990,7 @@
         <v>220</v>
       </c>
       <c r="AZ10" s="51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -7000,7 +7002,7 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BE10" s="19" t="s">
         <v>273</v>
@@ -7012,7 +7014,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BI10" s="19" t="s">
         <v>220</v>
@@ -7024,16 +7026,16 @@
         <v>274</v>
       </c>
       <c r="BL10" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BM10" s="50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BN10" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BO10" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -15188,7 +15190,7 @@
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -15208,7 +15210,7 @@
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="298">
   <si>
     <t>Date</t>
   </si>
@@ -1002,7 +1002,16 @@
     <t>RT.ART.006.SRM.01</t>
   </si>
   <si>
+    <t>ART.RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>UPD.OBSERVATION</t>
+  </si>
+  <si>
     <t>RT.ART.006.SRS.01</t>
+  </si>
+  <si>
+    <t>ART.RT.ART.006.SRS.01</t>
   </si>
   <si>
     <t>NOTES EQUIPEMENT</t>
@@ -1314,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1490,6 +1499,15 @@
     </xf>
     <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -15238,38 +15256,38 @@
         <v>286</v>
       </c>
       <c r="B10" s="19">
-        <v>1004.0</v>
+        <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="67">
         <v>40.0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>272</v>
+      <c r="F10" s="68" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B11" s="19">
-        <v>1004.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="69" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16787,7 +16805,7 @@
         <v>216</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -16798,7 +16816,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -16809,7 +16827,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18244,14 +18262,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>293</v>
+      <c r="A1" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -19285,7 +19303,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="36"/>
       <c r="B1" s="38" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -114,7 +114,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjK/gRnrXUkH4k+J4VcGz9/gtmp+w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miIvsDjd9C4mQmkioo0ARY2enGbiw=="/>
     </ext>
   </extLst>
 </comments>
@@ -825,7 +825,7 @@
     <t>EQU.RT.EQU.001.CRE.01</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>PEREETFILS</t>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -981,19 +981,19 @@
     <t>A</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRA.01</t>
+    <t>ART_RT_ART_006_SRA_01</t>
   </si>
   <si>
     <t>RT.ART.006.SRA.02</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRA.02</t>
+    <t>ART_RT_ART_006_SRA_02</t>
   </si>
   <si>
     <t>RT.ART.006.SRA.03</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRA.03</t>
+    <t>ART_RT_ART_006_SRA_03</t>
   </si>
   <si>
     <t>OBSERVATION 03</t>
@@ -1002,7 +1002,7 @@
     <t>RT.ART.006.SRM.01</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRM.01</t>
+    <t>ART_RT_ART_006_SRM_01</t>
   </si>
   <si>
     <t>UPD.OBSERVATION</t>
@@ -1011,7 +1011,7 @@
     <t>RT.ART.006.SRS.01</t>
   </si>
   <si>
-    <t>ART.RT.ART.006.SRS.01</t>
+    <t>ART_RT_ART_006_SRS_01</t>
   </si>
   <si>
     <t>NOTES EQUIPEMENT</t>
@@ -15201,7 +15201,7 @@
       <c r="C7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="66" t="s">
         <v>280</v>
       </c>
       <c r="E7" s="19">
@@ -15221,7 +15221,7 @@
       <c r="C8" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E8" s="19">
@@ -15241,7 +15241,7 @@
       <c r="C9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="66" t="s">
         <v>284</v>
       </c>
       <c r="E9" s="19">

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -10,13 +10,14 @@
     <sheet state="visible" name="001B" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="001C" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="IHMTO" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="MODELE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="mVmwD/d4aAsSIcH7m/gtYXJNc7weRfadBTRA5BHXFJQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="F5pjtPmjIAynPLL2Yc7BtRY1z4s0lv3a39kGZFJvodM="/>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="302">
   <si>
     <t>Date</t>
   </si>
@@ -944,6 +945,9 @@
   </si>
   <si>
     <t>RT.EQU.001.REC.01</t>
+  </si>
+  <si>
+    <t>EQU_CONTRA.ST_TYP</t>
   </si>
   <si>
     <t>RT.ART*001*ID_CODART</t>
@@ -1030,6 +1034,27 @@
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>Contrat de maintenance</t>
+  </si>
+  <si>
+    <t>Contrat d'assurance</t>
+  </si>
+  <si>
+    <t>Contrat de location</t>
+  </si>
+  <si>
+    <t>Contrat d'approvisionnement</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1297,7 +1322,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1459,6 +1484,9 @@
     <xf borderId="0" fillId="10" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1467,9 +1495,6 @@
     </xf>
     <xf borderId="0" fillId="14" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1485,6 +1510,18 @@
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1522,6 +1559,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -13503,17 +13544,19 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="13.38"/>
+    <col customWidth="1" min="4" max="4" width="17.63"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -13583,24 +13626,32 @@
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="D5" s="61" t="s">
+        <v>273</v>
+      </c>
       <c r="E5" s="59"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+    <row r="6">
+      <c r="A6" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="55"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="55"/>
@@ -14241,7 +14292,9 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="55"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="55"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -15021,6 +15074,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -15098,9 +15152,9 @@
         <v>33</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64" t="s">
-        <v>273</v>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61" t="s">
+        <v>274</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
@@ -15131,34 +15185,34 @@
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="59"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="61" t="s">
         <v>208</v>
       </c>
       <c r="E5" s="59"/>
       <c r="F5" s="59"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
@@ -15169,16 +15223,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
@@ -15189,56 +15243,56 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E10" s="66">
         <v>40.0</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E11" s="68" t="s">
         <v>218</v>
@@ -16744,14 +16798,14 @@
         <v>207</v>
       </c>
       <c r="B5" s="60"/>
-      <c r="C5" s="64"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="42" t="s">
@@ -16761,7 +16815,7 @@
         <v>213</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -16772,7 +16826,7 @@
         <v>213</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -16783,7 +16837,7 @@
         <v>213</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18219,13 +18273,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -19238,6 +19292,82 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF4C1130"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.88"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="3" max="3" width="22.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="74">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="74">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -19259,7 +19389,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -773,8 +773,10 @@
     <t>SEQUENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">EQU_ID
-</t>
+    <t>EQU_ID</t>
+  </si>
+  <si>
+    <t>EQUDOC_ID</t>
   </si>
   <si>
     <t>LOCATOR</t>
@@ -1113,6 +1115,18 @@
   </si>
   <si>
     <t>$TABSELECTED$ADR</t>
+  </si>
+  <si>
+    <t>DOC_Notes</t>
+  </si>
+  <si>
+    <t>//div[@id='DVID_NUMDOC1']/p/span</t>
+  </si>
+  <si>
+    <t>DOC_Consignes</t>
+  </si>
+  <si>
+    <t>//div[@id='DVID_NUMDOC2']/p/span</t>
   </si>
   <si>
     <t>PARA</t>
@@ -6038,17 +6052,17 @@
       <c r="I5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>9</v>
+      <c r="J5" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>9</v>
+      <c r="M5" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="N5" s="40" t="s">
         <v>9</v>
@@ -6220,20 +6234,20 @@
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -6242,15 +6256,15 @@
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
       <c r="S6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -6258,100 +6272,100 @@
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF6" s="42"/>
       <c r="AG6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AH6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AJ6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM6" s="42"/>
       <c r="AN6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT6" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="AR6" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="AS6" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT6" s="43" t="s">
-        <v>217</v>
-      </c>
       <c r="AU6" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AV6" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AW6" s="42"/>
       <c r="AX6" s="42"/>
       <c r="AY6" s="42"/>
       <c r="AZ6" s="42"/>
       <c r="BA6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BB6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BC6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BD6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="BE6" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF6" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="BE6" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF6" s="43" t="s">
-        <v>217</v>
-      </c>
       <c r="BG6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH6" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
@@ -6361,30 +6375,30 @@
       <c r="BN6" s="42"/>
       <c r="BO6" s="42"/>
       <c r="BP6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BQ6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BR6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BS6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BT6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BU6" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BV6" s="44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -6462,70 +6476,70 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="K8" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L8" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="M8" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="O8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="Q8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W8" s="21">
         <v>1.0</v>
@@ -6538,10 +6552,10 @@
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB8" s="19">
         <v>1000.0</v>
@@ -6557,16 +6571,16 @@
       </c>
       <c r="AF8" s="52"/>
       <c r="AG8" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK8" s="53">
         <v>44920.0</v>
@@ -6575,10 +6589,10 @@
         <v>10000.0</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO8" s="53">
         <v>45651.0</v>
@@ -6587,35 +6601,35 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AT8" s="54" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="AU8" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV8" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AV8" s="19" t="s">
-        <v>238</v>
-      </c>
       <c r="AW8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AZ8" s="51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6627,40 +6641,40 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BF8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BG8" s="53">
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BJ8" s="19">
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BL8" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BM8" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BN8" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BO8" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BP8" s="56"/>
       <c r="BQ8" s="56"/>
@@ -6672,31 +6686,31 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J9" s="51">
         <v>1000.0</v>
@@ -6705,37 +6719,37 @@
         <v>2000.0</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M9" s="51">
         <v>3000.0</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P9" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="R9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
@@ -6748,10 +6762,10 @@
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6767,16 +6781,16 @@
       </c>
       <c r="AF9" s="52"/>
       <c r="AG9" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK9" s="58">
         <v>43922.0</v>
@@ -6785,10 +6799,10 @@
         <v>20000.0</v>
       </c>
       <c r="AM9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO9" s="58">
         <v>44652.0</v>
@@ -6797,35 +6811,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AT9" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AZ9" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6837,88 +6851,88 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BF9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BG9" s="58">
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BJ9" s="19">
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BL9" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BM9" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BN9" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BO9" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BP9" s="56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BQ9" s="56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BR9" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BS9" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BT9" s="56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BU9" s="56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BV9" s="56"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J10" s="51">
         <v>1001.0</v>
@@ -6927,37 +6941,37 @@
         <v>2001.0</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M10" s="51">
         <v>3001.0</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="Q10" s="19" t="s">
-        <v>226</v>
-      </c>
       <c r="R10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -6970,10 +6984,10 @@
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -6989,16 +7003,16 @@
       </c>
       <c r="AF10" s="52"/>
       <c r="AG10" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK10" s="58">
         <v>43101.0</v>
@@ -7007,10 +7021,10 @@
         <v>40000.0</v>
       </c>
       <c r="AM10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO10" s="58">
         <v>43831.0</v>
@@ -7019,35 +7033,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AT10" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AZ10" s="57" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -7059,40 +7073,40 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BF10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BG10" s="58">
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BJ10" s="19">
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BL10" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BM10" s="55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BN10" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BO10" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BP10" s="56"/>
       <c r="BQ10" s="56"/>
@@ -7104,7 +7118,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7184,7 +7198,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -13715,13 +13729,13 @@
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
       <c r="D5" s="67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="65"/>
@@ -13730,7 +13744,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
@@ -15238,7 +15252,7 @@
       <c r="B2" s="64"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -15265,19 +15279,19 @@
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
       <c r="D5" s="67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
@@ -15287,102 +15301,102 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E10" s="72">
         <v>40.0</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -16874,54 +16888,56 @@
       <c r="A4" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="64" t="s">
+        <v>216</v>
+      </c>
       <c r="C4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18357,105 +18373,125 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1"/>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
@@ -19471,57 +19507,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="77" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B2" s="80">
         <v>0.0</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="80">
         <v>1.0</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" s="80">
         <v>2.0</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B5" s="80">
         <v>3.0</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -19529,10 +19565,10 @@
         <v>213</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -19564,7 +19600,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -19611,13 +19647,13 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" s="82"/>
     </row>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="DMTlZBqyHecb3PtXmvV1aNdLnkyd44ZdlsPB4fH0OEo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="GNi4M6dfczYGEESwxLSvH/lSkdvK9ojAVpOWh8dBYGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -88,14 +88,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgUrAaE0BRxficKZr419uMc7Hg6ug=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhw1eMH1PwPrzpX/X+pMsx2vAQK1w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="356">
   <si>
     <t>Date</t>
   </si>
@@ -1029,6 +1029,24 @@
   </si>
   <si>
     <t>NOTES DU CONTRAT</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1000</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2000</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3000</t>
+  </si>
+  <si>
+    <t>NOTES EQUIPEMENT 1001 Modifié</t>
+  </si>
+  <si>
+    <t>NOTES CONSIGNES SECURITE 2001  Modifié</t>
+  </si>
+  <si>
+    <t>NOTES DU CONTRAT 3001</t>
   </si>
   <si>
     <t>TAB</t>
@@ -1127,6 +1145,54 @@
   </si>
   <si>
     <t>//div[@id='DVID_NUMDOC2']/p/span</t>
+  </si>
+  <si>
+    <t>input_Filtre_Grille</t>
+  </si>
+  <si>
+    <t>//input[@id='CODE']</t>
+  </si>
+  <si>
+    <t>td_Grille</t>
+  </si>
+  <si>
+    <t>//div[@id='ctn-EQU']//table//tr[2]//td[2]//span[text()='${ST_CODCOU}']</t>
+  </si>
+  <si>
+    <t>button_Selectionner</t>
+  </si>
+  <si>
+    <t>//button[@value='Sélectionner']</t>
+  </si>
+  <si>
+    <t>ModifierNotes</t>
+  </si>
+  <si>
+    <t>//div[@id='zoneID_NUMDOC1']//a[@title='Modifier le mémo']/i</t>
+  </si>
+  <si>
+    <t>ModifierConsignes</t>
+  </si>
+  <si>
+    <t>//div[@id='zoneID_NUMDOC2']//a[@title='Modifier le mémo']/i</t>
+  </si>
+  <si>
+    <t>frameNote</t>
+  </si>
+  <si>
+    <t>//iframe[@class='cke_wysiwyg_frame cke_reset']</t>
+  </si>
+  <si>
+    <t>textNote</t>
+  </si>
+  <si>
+    <t>//p/span</t>
+  </si>
+  <si>
+    <t>BTN_ValiderEtFermerNote</t>
+  </si>
+  <si>
+    <t>//button[@value='Valider et Fermer']</t>
   </si>
   <si>
     <t>PARA</t>
@@ -1276,7 +1342,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,6 +1441,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9E7FD"/>
+        <bgColor rgb="FFD9E7FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="1"/>
       </patternFill>
@@ -1436,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1597,6 +1669,9 @@
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1640,8 +1715,29 @@
     <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="17" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -1657,7 +1753,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="17" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="18" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6548,7 +6644,7 @@
         <v>1.0</v>
       </c>
       <c r="Y8" s="18" t="str">
-        <f t="shared" ref="Y8:Y10" si="1">CONCATENATE(UPPER(AA8),REPT(".",30-LEN(AA8)))</f>
+        <f t="shared" ref="Y8:Y12" si="1">CONCATENATE(UPPER(AA8),REPT(".",30-LEN(AA8)))</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="Z8" s="19" t="s">
@@ -7145,9 +7241,14 @@
       <c r="V11" s="52"/>
       <c r="W11" s="52"/>
       <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
+      <c r="Y11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>RT.EQU.001.SUP.01.............</v>
+      </c>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="32" t="s">
+        <v>281</v>
+      </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
       <c r="AD11" s="52"/>
@@ -7159,7 +7260,7 @@
       <c r="AJ11" s="52"/>
       <c r="AK11" s="52"/>
       <c r="AL11" s="52"/>
-      <c r="AM11" s="60"/>
+      <c r="AM11" s="61"/>
       <c r="AN11" s="52"/>
       <c r="AO11" s="52"/>
       <c r="AP11" s="52"/>
@@ -7169,19 +7270,19 @@
       <c r="AT11" s="52"/>
       <c r="AU11" s="52"/>
       <c r="AV11" s="52"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="60"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
       <c r="AZ11" s="59"/>
       <c r="BA11" s="52"/>
       <c r="BB11" s="52"/>
       <c r="BC11" s="52"/>
       <c r="BD11" s="52"/>
       <c r="BE11" s="52"/>
-      <c r="BF11" s="60"/>
+      <c r="BF11" s="61"/>
       <c r="BG11" s="52"/>
       <c r="BH11" s="52"/>
-      <c r="BI11" s="60"/>
+      <c r="BI11" s="61"/>
       <c r="BJ11" s="52"/>
       <c r="BK11" s="52"/>
       <c r="BL11" s="59"/>
@@ -7225,9 +7326,14 @@
       <c r="V12" s="52"/>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
+      <c r="Y12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>RT.EQU.001.REC.01.............</v>
+      </c>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="32" t="s">
+        <v>282</v>
+      </c>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
       <c r="AD12" s="52"/>
@@ -7239,7 +7345,7 @@
       <c r="AJ12" s="52"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="52"/>
-      <c r="AM12" s="60"/>
+      <c r="AM12" s="61"/>
       <c r="AN12" s="52"/>
       <c r="AO12" s="52"/>
       <c r="AP12" s="52"/>
@@ -7249,19 +7355,19 @@
       <c r="AT12" s="52"/>
       <c r="AU12" s="52"/>
       <c r="AV12" s="52"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="61"/>
+      <c r="AY12" s="61"/>
       <c r="AZ12" s="59"/>
       <c r="BA12" s="52"/>
       <c r="BB12" s="52"/>
       <c r="BC12" s="52"/>
       <c r="BD12" s="52"/>
       <c r="BE12" s="52"/>
-      <c r="BF12" s="60"/>
+      <c r="BF12" s="61"/>
       <c r="BG12" s="52"/>
       <c r="BH12" s="52"/>
-      <c r="BI12" s="60"/>
+      <c r="BI12" s="61"/>
       <c r="BJ12" s="52"/>
       <c r="BK12" s="52"/>
       <c r="BL12" s="59"/>
@@ -7315,7 +7421,7 @@
       <c r="AJ13" s="52"/>
       <c r="AK13" s="52"/>
       <c r="AL13" s="52"/>
-      <c r="AM13" s="60"/>
+      <c r="AM13" s="61"/>
       <c r="AN13" s="52"/>
       <c r="AO13" s="52"/>
       <c r="AP13" s="52"/>
@@ -7325,19 +7431,19 @@
       <c r="AT13" s="52"/>
       <c r="AU13" s="52"/>
       <c r="AV13" s="52"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="61"/>
+      <c r="AY13" s="61"/>
       <c r="AZ13" s="59"/>
       <c r="BA13" s="52"/>
       <c r="BB13" s="52"/>
       <c r="BC13" s="52"/>
       <c r="BD13" s="52"/>
       <c r="BE13" s="52"/>
-      <c r="BF13" s="60"/>
+      <c r="BF13" s="61"/>
       <c r="BG13" s="52"/>
       <c r="BH13" s="52"/>
-      <c r="BI13" s="60"/>
+      <c r="BI13" s="61"/>
       <c r="BJ13" s="52"/>
       <c r="BK13" s="52"/>
       <c r="BL13" s="59"/>
@@ -7391,7 +7497,7 @@
       <c r="AJ14" s="52"/>
       <c r="AK14" s="52"/>
       <c r="AL14" s="52"/>
-      <c r="AM14" s="60"/>
+      <c r="AM14" s="61"/>
       <c r="AN14" s="52"/>
       <c r="AO14" s="52"/>
       <c r="AP14" s="52"/>
@@ -7401,19 +7507,19 @@
       <c r="AT14" s="52"/>
       <c r="AU14" s="52"/>
       <c r="AV14" s="52"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
       <c r="AZ14" s="59"/>
       <c r="BA14" s="52"/>
       <c r="BB14" s="52"/>
       <c r="BC14" s="52"/>
       <c r="BD14" s="52"/>
       <c r="BE14" s="52"/>
-      <c r="BF14" s="60"/>
+      <c r="BF14" s="61"/>
       <c r="BG14" s="52"/>
       <c r="BH14" s="52"/>
-      <c r="BI14" s="60"/>
+      <c r="BI14" s="61"/>
       <c r="BJ14" s="52"/>
       <c r="BK14" s="52"/>
       <c r="BL14" s="59"/>
@@ -7467,7 +7573,7 @@
       <c r="AJ15" s="52"/>
       <c r="AK15" s="52"/>
       <c r="AL15" s="52"/>
-      <c r="AM15" s="60"/>
+      <c r="AM15" s="61"/>
       <c r="AN15" s="52"/>
       <c r="AO15" s="52"/>
       <c r="AP15" s="52"/>
@@ -7477,19 +7583,19 @@
       <c r="AT15" s="52"/>
       <c r="AU15" s="52"/>
       <c r="AV15" s="52"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
       <c r="AZ15" s="59"/>
       <c r="BA15" s="52"/>
       <c r="BB15" s="52"/>
       <c r="BC15" s="52"/>
       <c r="BD15" s="52"/>
       <c r="BE15" s="52"/>
-      <c r="BF15" s="60"/>
+      <c r="BF15" s="61"/>
       <c r="BG15" s="52"/>
       <c r="BH15" s="52"/>
-      <c r="BI15" s="60"/>
+      <c r="BI15" s="61"/>
       <c r="BJ15" s="52"/>
       <c r="BK15" s="52"/>
       <c r="BL15" s="59"/>
@@ -7505,1442 +7611,1442 @@
       <c r="BV15" s="59"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="J16" s="54"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="J17" s="54"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="J18" s="54"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="J19" s="54"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="J20" s="54"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="J21" s="54"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="J22" s="54"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="J23" s="54"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="J24" s="54"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="J25" s="54"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="J26" s="54"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="J27" s="54"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="J28" s="54"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="J29" s="54"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="J30" s="54"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="J31" s="54"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
       <c r="J32" s="54"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="J33" s="54"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="54"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="J34" s="54"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
       <c r="J35" s="54"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="54"/>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
       <c r="J36" s="54"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="54"/>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="J38" s="54"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
       <c r="J39" s="54"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="J40" s="54"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="54"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="J41" s="54"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="J42" s="54"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="J43" s="54"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
       <c r="J44" s="54"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="J45" s="54"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
       <c r="J46" s="54"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="54"/>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="J47" s="54"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="J48" s="54"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="J49" s="54"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="J50" s="54"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="J51" s="54"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="J52" s="54"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="J53" s="54"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
       <c r="J54" s="54"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
       <c r="J55" s="54"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
       <c r="J56" s="54"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="J57" s="54"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
       <c r="J58" s="54"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
       <c r="J59" s="54"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
       <c r="J60" s="54"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="J61" s="54"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
       <c r="J62" s="54"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
       <c r="J63" s="54"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="54"/>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="J64" s="54"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="54"/>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
       <c r="J65" s="54"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="54"/>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
       <c r="J66" s="54"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="54"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="J67" s="54"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="54"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="J68" s="54"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="54"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="J69" s="54"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="54"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="J70" s="54"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="54"/>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="J71" s="54"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="54"/>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
       <c r="J72" s="54"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="54"/>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
       <c r="J73" s="54"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="54"/>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
       <c r="J74" s="54"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="54"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
       <c r="J75" s="54"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="54"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
       <c r="J76" s="54"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="J77" s="54"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="54"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
       <c r="J78" s="54"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="54"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
       <c r="J79" s="54"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
       <c r="J80" s="54"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="J81" s="54"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="J82" s="54"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="54"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
       <c r="J83" s="54"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="54"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
       <c r="J84" s="54"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
       <c r="J85" s="54"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
       <c r="J86" s="54"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="54"/>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
       <c r="J87" s="54"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="54"/>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
       <c r="J88" s="54"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="54"/>
       <c r="F89" s="54"/>
       <c r="G89" s="54"/>
       <c r="J89" s="54"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="54"/>
       <c r="F90" s="54"/>
       <c r="G90" s="54"/>
       <c r="J90" s="54"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="54"/>
       <c r="F91" s="54"/>
       <c r="G91" s="54"/>
       <c r="J91" s="54"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="54"/>
       <c r="F92" s="54"/>
       <c r="G92" s="54"/>
       <c r="J92" s="54"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
       <c r="B93" s="54"/>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
       <c r="J93" s="54"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="54"/>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
       <c r="J94" s="54"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
       <c r="B95" s="54"/>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
       <c r="J95" s="54"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
       <c r="B96" s="54"/>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
       <c r="J96" s="54"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
       <c r="B97" s="54"/>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
       <c r="J97" s="54"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
       <c r="B98" s="54"/>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
       <c r="J98" s="54"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="54"/>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
       <c r="J99" s="54"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
       <c r="B100" s="54"/>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
       <c r="J100" s="54"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
       <c r="B101" s="54"/>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
       <c r="J101" s="54"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
       <c r="B102" s="54"/>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
       <c r="J102" s="54"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
       <c r="B103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
       <c r="J103" s="54"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
       <c r="B104" s="54"/>
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
       <c r="J104" s="54"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
       <c r="B105" s="54"/>
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
       <c r="J105" s="54"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
       <c r="B106" s="54"/>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
       <c r="J106" s="54"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
       <c r="B107" s="54"/>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
       <c r="J107" s="54"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
       <c r="B108" s="54"/>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
       <c r="J108" s="54"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
       <c r="B109" s="54"/>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
       <c r="J109" s="54"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
       <c r="B110" s="54"/>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
       <c r="J110" s="54"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
       <c r="B111" s="54"/>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
       <c r="J111" s="54"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
       <c r="B112" s="54"/>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
       <c r="J112" s="54"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
       <c r="B113" s="54"/>
       <c r="F113" s="54"/>
       <c r="G113" s="54"/>
       <c r="J113" s="54"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="62"/>
       <c r="B114" s="54"/>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
       <c r="J114" s="54"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
       <c r="B115" s="54"/>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
       <c r="J115" s="54"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
       <c r="B116" s="54"/>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
       <c r="J116" s="54"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
       <c r="B117" s="54"/>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
       <c r="J117" s="54"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
       <c r="B118" s="54"/>
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>
       <c r="J118" s="54"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
       <c r="B119" s="54"/>
       <c r="F119" s="54"/>
       <c r="G119" s="54"/>
       <c r="J119" s="54"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
       <c r="B120" s="54"/>
       <c r="F120" s="54"/>
       <c r="G120" s="54"/>
       <c r="J120" s="54"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
       <c r="B121" s="54"/>
       <c r="F121" s="54"/>
       <c r="G121" s="54"/>
       <c r="J121" s="54"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
       <c r="B122" s="54"/>
       <c r="F122" s="54"/>
       <c r="G122" s="54"/>
       <c r="J122" s="54"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
       <c r="B123" s="54"/>
       <c r="F123" s="54"/>
       <c r="G123" s="54"/>
       <c r="J123" s="54"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
       <c r="B124" s="54"/>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
       <c r="J124" s="54"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
       <c r="B125" s="54"/>
       <c r="F125" s="54"/>
       <c r="G125" s="54"/>
       <c r="J125" s="54"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
       <c r="B126" s="54"/>
       <c r="F126" s="54"/>
       <c r="G126" s="54"/>
       <c r="J126" s="54"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
       <c r="B127" s="54"/>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
       <c r="J127" s="54"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
       <c r="B128" s="54"/>
       <c r="F128" s="54"/>
       <c r="G128" s="54"/>
       <c r="J128" s="54"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
       <c r="B129" s="54"/>
       <c r="F129" s="54"/>
       <c r="G129" s="54"/>
       <c r="J129" s="54"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
       <c r="B130" s="54"/>
       <c r="F130" s="54"/>
       <c r="G130" s="54"/>
       <c r="J130" s="54"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
       <c r="B131" s="54"/>
       <c r="F131" s="54"/>
       <c r="G131" s="54"/>
       <c r="J131" s="54"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
       <c r="B132" s="54"/>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
       <c r="J132" s="54"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
       <c r="B133" s="54"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54"/>
       <c r="J133" s="54"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
       <c r="B134" s="54"/>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
       <c r="J134" s="54"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
       <c r="B135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54"/>
       <c r="J135" s="54"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
       <c r="B136" s="54"/>
       <c r="F136" s="54"/>
       <c r="G136" s="54"/>
       <c r="J136" s="54"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
       <c r="B137" s="54"/>
       <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="J137" s="54"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
       <c r="B138" s="54"/>
       <c r="F138" s="54"/>
       <c r="G138" s="54"/>
       <c r="J138" s="54"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
       <c r="B139" s="54"/>
       <c r="F139" s="54"/>
       <c r="G139" s="54"/>
       <c r="J139" s="54"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
       <c r="B140" s="54"/>
       <c r="F140" s="54"/>
       <c r="G140" s="54"/>
       <c r="J140" s="54"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
       <c r="B141" s="54"/>
       <c r="F141" s="54"/>
       <c r="G141" s="54"/>
       <c r="J141" s="54"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
       <c r="B142" s="54"/>
       <c r="F142" s="54"/>
       <c r="G142" s="54"/>
       <c r="J142" s="54"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
       <c r="B143" s="54"/>
       <c r="F143" s="54"/>
       <c r="G143" s="54"/>
       <c r="J143" s="54"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
       <c r="B144" s="54"/>
       <c r="F144" s="54"/>
       <c r="G144" s="54"/>
       <c r="J144" s="54"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
       <c r="B145" s="54"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54"/>
       <c r="J145" s="54"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="62"/>
       <c r="B146" s="54"/>
       <c r="F146" s="54"/>
       <c r="G146" s="54"/>
       <c r="J146" s="54"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
       <c r="B147" s="54"/>
       <c r="F147" s="54"/>
       <c r="G147" s="54"/>
       <c r="J147" s="54"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
       <c r="B148" s="54"/>
       <c r="F148" s="54"/>
       <c r="G148" s="54"/>
       <c r="J148" s="54"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
       <c r="B149" s="54"/>
       <c r="F149" s="54"/>
       <c r="G149" s="54"/>
       <c r="J149" s="54"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
       <c r="B150" s="54"/>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
       <c r="J150" s="54"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
       <c r="B151" s="54"/>
       <c r="F151" s="54"/>
       <c r="G151" s="54"/>
       <c r="J151" s="54"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
       <c r="B152" s="54"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54"/>
       <c r="J152" s="54"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
       <c r="B153" s="54"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54"/>
       <c r="J153" s="54"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
       <c r="B154" s="54"/>
       <c r="F154" s="54"/>
       <c r="G154" s="54"/>
       <c r="J154" s="54"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
       <c r="B155" s="54"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54"/>
       <c r="J155" s="54"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
       <c r="B156" s="54"/>
       <c r="F156" s="54"/>
       <c r="G156" s="54"/>
       <c r="J156" s="54"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
       <c r="B157" s="54"/>
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="J157" s="54"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="54"/>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
       <c r="J158" s="54"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
       <c r="B159" s="54"/>
       <c r="F159" s="54"/>
       <c r="G159" s="54"/>
       <c r="J159" s="54"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
       <c r="B160" s="54"/>
       <c r="F160" s="54"/>
       <c r="G160" s="54"/>
       <c r="J160" s="54"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
       <c r="B161" s="54"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54"/>
       <c r="J161" s="54"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
       <c r="B162" s="54"/>
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="J162" s="54"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
       <c r="B163" s="54"/>
       <c r="F163" s="54"/>
       <c r="G163" s="54"/>
       <c r="J163" s="54"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
       <c r="B164" s="54"/>
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
       <c r="J164" s="54"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
       <c r="B165" s="54"/>
       <c r="F165" s="54"/>
       <c r="G165" s="54"/>
       <c r="J165" s="54"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
       <c r="B166" s="54"/>
       <c r="F166" s="54"/>
       <c r="G166" s="54"/>
       <c r="J166" s="54"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="61"/>
+      <c r="A167" s="62"/>
       <c r="B167" s="54"/>
       <c r="F167" s="54"/>
       <c r="G167" s="54"/>
       <c r="J167" s="54"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="61"/>
+      <c r="A168" s="62"/>
       <c r="B168" s="54"/>
       <c r="F168" s="54"/>
       <c r="G168" s="54"/>
       <c r="J168" s="54"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="61"/>
+      <c r="A169" s="62"/>
       <c r="B169" s="54"/>
       <c r="F169" s="54"/>
       <c r="G169" s="54"/>
       <c r="J169" s="54"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="61"/>
+      <c r="A170" s="62"/>
       <c r="B170" s="54"/>
       <c r="F170" s="54"/>
       <c r="G170" s="54"/>
       <c r="J170" s="54"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="61"/>
+      <c r="A171" s="62"/>
       <c r="B171" s="54"/>
       <c r="F171" s="54"/>
       <c r="G171" s="54"/>
       <c r="J171" s="54"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="61"/>
+      <c r="A172" s="62"/>
       <c r="B172" s="54"/>
       <c r="F172" s="54"/>
       <c r="G172" s="54"/>
       <c r="J172" s="54"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="61"/>
+      <c r="A173" s="62"/>
       <c r="B173" s="54"/>
       <c r="F173" s="54"/>
       <c r="G173" s="54"/>
       <c r="J173" s="54"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="61"/>
+      <c r="A174" s="62"/>
       <c r="B174" s="54"/>
       <c r="F174" s="54"/>
       <c r="G174" s="54"/>
       <c r="J174" s="54"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="61"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="54"/>
       <c r="F175" s="54"/>
       <c r="G175" s="54"/>
       <c r="J175" s="54"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="61"/>
+      <c r="A176" s="62"/>
       <c r="B176" s="54"/>
       <c r="F176" s="54"/>
       <c r="G176" s="54"/>
       <c r="J176" s="54"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="61"/>
+      <c r="A177" s="62"/>
       <c r="B177" s="54"/>
       <c r="F177" s="54"/>
       <c r="G177" s="54"/>
       <c r="J177" s="54"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="61"/>
+      <c r="A178" s="62"/>
       <c r="B178" s="54"/>
       <c r="F178" s="54"/>
       <c r="G178" s="54"/>
       <c r="J178" s="54"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="61"/>
+      <c r="A179" s="62"/>
       <c r="B179" s="54"/>
       <c r="F179" s="54"/>
       <c r="G179" s="54"/>
       <c r="J179" s="54"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="61"/>
+      <c r="A180" s="62"/>
       <c r="B180" s="54"/>
       <c r="F180" s="54"/>
       <c r="G180" s="54"/>
       <c r="J180" s="54"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="61"/>
+      <c r="A181" s="62"/>
       <c r="B181" s="54"/>
       <c r="F181" s="54"/>
       <c r="G181" s="54"/>
       <c r="J181" s="54"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="61"/>
+      <c r="A182" s="62"/>
       <c r="B182" s="54"/>
       <c r="F182" s="54"/>
       <c r="G182" s="54"/>
       <c r="J182" s="54"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="61"/>
+      <c r="A183" s="62"/>
       <c r="B183" s="54"/>
       <c r="F183" s="54"/>
       <c r="G183" s="54"/>
       <c r="J183" s="54"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="61"/>
+      <c r="A184" s="62"/>
       <c r="B184" s="54"/>
       <c r="F184" s="54"/>
       <c r="G184" s="54"/>
       <c r="J184" s="54"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="61"/>
+      <c r="A185" s="62"/>
       <c r="B185" s="54"/>
       <c r="F185" s="54"/>
       <c r="G185" s="54"/>
       <c r="J185" s="54"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="61"/>
+      <c r="A186" s="62"/>
       <c r="B186" s="54"/>
       <c r="F186" s="54"/>
       <c r="G186" s="54"/>
       <c r="J186" s="54"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="61"/>
+      <c r="A187" s="62"/>
       <c r="B187" s="54"/>
       <c r="F187" s="54"/>
       <c r="G187" s="54"/>
       <c r="J187" s="54"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="61"/>
+      <c r="A188" s="62"/>
       <c r="B188" s="54"/>
       <c r="F188" s="54"/>
       <c r="G188" s="54"/>
       <c r="J188" s="54"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="61"/>
+      <c r="A189" s="62"/>
       <c r="B189" s="54"/>
       <c r="F189" s="54"/>
       <c r="G189" s="54"/>
       <c r="J189" s="54"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="61"/>
+      <c r="A190" s="62"/>
       <c r="B190" s="54"/>
       <c r="F190" s="54"/>
       <c r="G190" s="54"/>
       <c r="J190" s="54"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="61"/>
+      <c r="A191" s="62"/>
       <c r="B191" s="54"/>
       <c r="F191" s="54"/>
       <c r="G191" s="54"/>
       <c r="J191" s="54"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="61"/>
+      <c r="A192" s="62"/>
       <c r="B192" s="54"/>
       <c r="F192" s="54"/>
       <c r="G192" s="54"/>
       <c r="J192" s="54"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="61"/>
+      <c r="A193" s="62"/>
       <c r="B193" s="54"/>
       <c r="F193" s="54"/>
       <c r="G193" s="54"/>
       <c r="J193" s="54"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="61"/>
+      <c r="A194" s="62"/>
       <c r="B194" s="54"/>
       <c r="F194" s="54"/>
       <c r="G194" s="54"/>
       <c r="J194" s="54"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="61"/>
+      <c r="A195" s="62"/>
       <c r="B195" s="54"/>
       <c r="F195" s="54"/>
       <c r="G195" s="54"/>
       <c r="J195" s="54"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="61"/>
+      <c r="A196" s="62"/>
       <c r="B196" s="54"/>
       <c r="F196" s="54"/>
       <c r="G196" s="54"/>
       <c r="J196" s="54"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="61"/>
+      <c r="A197" s="62"/>
       <c r="B197" s="54"/>
       <c r="F197" s="54"/>
       <c r="G197" s="54"/>
       <c r="J197" s="54"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="61"/>
+      <c r="A198" s="62"/>
       <c r="B198" s="54"/>
       <c r="F198" s="54"/>
       <c r="G198" s="54"/>
       <c r="J198" s="54"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="61"/>
+      <c r="A199" s="62"/>
       <c r="B199" s="54"/>
       <c r="F199" s="54"/>
       <c r="G199" s="54"/>
       <c r="J199" s="54"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="61"/>
+      <c r="A200" s="62"/>
       <c r="B200" s="54"/>
       <c r="F200" s="54"/>
       <c r="G200" s="54"/>
       <c r="J200" s="54"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="61"/>
+      <c r="A201" s="62"/>
       <c r="B201" s="54"/>
       <c r="F201" s="54"/>
       <c r="G201" s="54"/>
       <c r="J201" s="54"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="61"/>
+      <c r="A202" s="62"/>
       <c r="B202" s="54"/>
       <c r="F202" s="54"/>
       <c r="G202" s="54"/>
       <c r="J202" s="54"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="61"/>
+      <c r="A203" s="62"/>
       <c r="B203" s="54"/>
       <c r="F203" s="54"/>
       <c r="G203" s="54"/>
       <c r="J203" s="54"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="61"/>
+      <c r="A204" s="62"/>
       <c r="B204" s="54"/>
       <c r="F204" s="54"/>
       <c r="G204" s="54"/>
       <c r="J204" s="54"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="61"/>
+      <c r="A205" s="62"/>
       <c r="B205" s="54"/>
       <c r="F205" s="54"/>
       <c r="G205" s="54"/>
       <c r="J205" s="54"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="61"/>
+      <c r="A206" s="62"/>
       <c r="B206" s="54"/>
       <c r="F206" s="54"/>
       <c r="G206" s="54"/>
       <c r="J206" s="54"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="61"/>
+      <c r="A207" s="62"/>
       <c r="B207" s="54"/>
       <c r="F207" s="54"/>
       <c r="G207" s="54"/>
       <c r="J207" s="54"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="61"/>
+      <c r="A208" s="62"/>
       <c r="B208" s="54"/>
       <c r="F208" s="54"/>
       <c r="G208" s="54"/>
       <c r="J208" s="54"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="61"/>
+      <c r="A209" s="62"/>
       <c r="B209" s="54"/>
       <c r="F209" s="54"/>
       <c r="G209" s="54"/>
       <c r="J209" s="54"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="61"/>
+      <c r="A210" s="62"/>
       <c r="B210" s="54"/>
       <c r="F210" s="54"/>
       <c r="G210" s="54"/>
       <c r="J210" s="54"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="61"/>
+      <c r="A211" s="62"/>
       <c r="B211" s="54"/>
       <c r="F211" s="54"/>
       <c r="G211" s="54"/>
       <c r="J211" s="54"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="61"/>
+      <c r="A212" s="62"/>
       <c r="B212" s="54"/>
       <c r="F212" s="54"/>
       <c r="G212" s="54"/>
       <c r="J212" s="54"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="61"/>
+      <c r="A213" s="62"/>
       <c r="B213" s="54"/>
       <c r="F213" s="54"/>
       <c r="G213" s="54"/>
       <c r="J213" s="54"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="61"/>
+      <c r="A214" s="62"/>
       <c r="B214" s="54"/>
       <c r="F214" s="54"/>
       <c r="G214" s="54"/>
       <c r="J214" s="54"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="61"/>
+      <c r="A215" s="62"/>
       <c r="B215" s="54"/>
       <c r="F215" s="54"/>
       <c r="G215" s="54"/>
       <c r="J215" s="54"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="61"/>
+      <c r="A216" s="62"/>
       <c r="B216" s="54"/>
       <c r="F216" s="54"/>
       <c r="G216" s="54"/>
       <c r="J216" s="54"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="61"/>
+      <c r="A217" s="62"/>
       <c r="B217" s="54"/>
       <c r="F217" s="54"/>
       <c r="G217" s="54"/>
       <c r="J217" s="54"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="61"/>
+      <c r="A218" s="62"/>
       <c r="B218" s="54"/>
       <c r="F218" s="54"/>
       <c r="G218" s="54"/>
       <c r="J218" s="54"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="61"/>
+      <c r="A219" s="62"/>
       <c r="B219" s="54"/>
       <c r="F219" s="54"/>
       <c r="G219" s="54"/>
       <c r="J219" s="54"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="61"/>
+      <c r="A220" s="62"/>
       <c r="B220" s="54"/>
       <c r="F220" s="54"/>
       <c r="G220" s="54"/>
       <c r="J220" s="54"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="61"/>
+      <c r="A221" s="62"/>
       <c r="B221" s="54"/>
       <c r="F221" s="54"/>
       <c r="G221" s="54"/>
@@ -13658,7 +13764,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>174</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -13670,7 +13776,7 @@
       <c r="D1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>179</v>
       </c>
       <c r="F1" s="37"/>
@@ -13696,702 +13802,702 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="65"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="62"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="62"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="61"/>
+      <c r="A167" s="62"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="61"/>
+      <c r="A168" s="62"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="61"/>
+      <c r="A169" s="62"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="61"/>
+      <c r="A170" s="62"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="61"/>
+      <c r="A171" s="62"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="61"/>
+      <c r="A172" s="62"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="61"/>
+      <c r="A173" s="62"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="61"/>
+      <c r="A174" s="62"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="61"/>
+      <c r="A175" s="62"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="61"/>
+      <c r="A176" s="62"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="61"/>
+      <c r="A177" s="62"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="61"/>
+      <c r="A178" s="62"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="61"/>
+      <c r="A179" s="62"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="61"/>
+      <c r="A180" s="62"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="61"/>
+      <c r="A181" s="62"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="61"/>
+      <c r="A182" s="62"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="61"/>
+      <c r="A183" s="62"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="61"/>
+      <c r="A184" s="62"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="61"/>
+      <c r="A185" s="62"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="61"/>
+      <c r="A186" s="62"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="61"/>
+      <c r="A187" s="62"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="61"/>
+      <c r="A188" s="62"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="61"/>
+      <c r="A189" s="62"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="61"/>
+      <c r="A190" s="62"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="61"/>
+      <c r="A191" s="62"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="61"/>
+      <c r="A192" s="62"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="61"/>
+      <c r="A193" s="62"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="61"/>
+      <c r="A194" s="62"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="61"/>
+      <c r="A195" s="62"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="61"/>
+      <c r="A196" s="62"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="61"/>
+      <c r="A197" s="62"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="61"/>
+      <c r="A198" s="62"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="61"/>
+      <c r="A199" s="62"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="61"/>
+      <c r="A200" s="62"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="61"/>
+      <c r="A201" s="62"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="61"/>
+      <c r="A202" s="62"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="61"/>
+      <c r="A203" s="62"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="61"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="61"/>
+      <c r="A205" s="62"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="61"/>
+      <c r="A206" s="62"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="61"/>
+      <c r="A207" s="62"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="61"/>
+      <c r="A208" s="62"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="61"/>
+      <c r="A209" s="62"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="61"/>
+      <c r="A210" s="62"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="61"/>
+      <c r="A211" s="62"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="61"/>
+      <c r="A212" s="62"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="61"/>
+      <c r="A213" s="62"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="61"/>
+      <c r="A214" s="62"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="61"/>
+      <c r="A215" s="62"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="61"/>
+      <c r="A216" s="62"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="61"/>
+      <c r="A217" s="62"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="61"/>
+      <c r="A218" s="62"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="61"/>
+      <c r="A219" s="62"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="61"/>
+      <c r="A220" s="62"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="61"/>
+      <c r="A221" s="62"/>
     </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -15206,7 +15312,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -15218,10 +15324,10 @@
       <c r="D1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="64" t="s">
         <v>116</v>
       </c>
       <c r="G1" s="37"/>
@@ -15246,58 +15352,58 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
@@ -15309,7 +15415,7 @@
       <c r="C7" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="19">
@@ -15329,7 +15435,7 @@
       <c r="C8" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="72" t="s">
         <v>289</v>
       </c>
       <c r="E8" s="19">
@@ -15349,7 +15455,7 @@
       <c r="C9" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="72" t="s">
         <v>291</v>
       </c>
       <c r="E9" s="19">
@@ -15369,13 +15475,13 @@
       <c r="C10" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="73">
         <v>40.0</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="74" t="s">
         <v>295</v>
       </c>
     </row>
@@ -15389,642 +15495,642 @@
       <c r="C11" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="75" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="62"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="62"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="61"/>
+      <c r="A167" s="62"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="61"/>
+      <c r="A168" s="62"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="61"/>
+      <c r="A169" s="62"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="61"/>
+      <c r="A170" s="62"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="61"/>
+      <c r="A171" s="62"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="61"/>
+      <c r="A172" s="62"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="61"/>
+      <c r="A173" s="62"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="61"/>
+      <c r="A174" s="62"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="61"/>
+      <c r="A175" s="62"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="61"/>
+      <c r="A176" s="62"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="61"/>
+      <c r="A177" s="62"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="61"/>
+      <c r="A178" s="62"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="61"/>
+      <c r="A179" s="62"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="61"/>
+      <c r="A180" s="62"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="61"/>
+      <c r="A181" s="62"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="61"/>
+      <c r="A182" s="62"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="61"/>
+      <c r="A183" s="62"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="61"/>
+      <c r="A184" s="62"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="61"/>
+      <c r="A185" s="62"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="61"/>
+      <c r="A186" s="62"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="61"/>
+      <c r="A187" s="62"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="61"/>
+      <c r="A188" s="62"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="61"/>
+      <c r="A189" s="62"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="61"/>
+      <c r="A190" s="62"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="61"/>
+      <c r="A191" s="62"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="61"/>
+      <c r="A192" s="62"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="61"/>
+      <c r="A193" s="62"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="61"/>
+      <c r="A194" s="62"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="61"/>
+      <c r="A195" s="62"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="61"/>
+      <c r="A196" s="62"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="61"/>
+      <c r="A197" s="62"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="61"/>
+      <c r="A198" s="62"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="61"/>
+      <c r="A199" s="62"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="61"/>
+      <c r="A200" s="62"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="61"/>
+      <c r="A201" s="62"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="61"/>
+      <c r="A202" s="62"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="61"/>
+      <c r="A203" s="62"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="61"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="61"/>
+      <c r="A205" s="62"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="61"/>
+      <c r="A206" s="62"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="61"/>
+      <c r="A207" s="62"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="61"/>
+      <c r="A208" s="62"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="61"/>
+      <c r="A209" s="62"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="61"/>
+      <c r="A210" s="62"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="61"/>
+      <c r="A211" s="62"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="61"/>
+      <c r="A212" s="62"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="61"/>
+      <c r="A213" s="62"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="61"/>
+      <c r="A214" s="62"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="61"/>
+      <c r="A215" s="62"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="61"/>
+      <c r="A216" s="62"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="61"/>
+      <c r="A217" s="62"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="61"/>
+      <c r="A218" s="62"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="61"/>
+      <c r="A219" s="62"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="61"/>
+      <c r="A220" s="62"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -16837,13 +16943,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>193</v>
       </c>
       <c r="D1" s="37"/>
@@ -16871,41 +16977,41 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
@@ -16941,628 +17047,676 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="77">
+        <v>1000.0</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="77">
+        <v>2000.0</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="77">
+        <v>3000.0</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="77">
+        <v>1001.0</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="77">
+        <v>2001.0</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="77">
+        <v>3001.0</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="62"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="62"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="61"/>
+      <c r="A167" s="62"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="61"/>
+      <c r="A168" s="62"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="61"/>
+      <c r="A169" s="62"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="61"/>
+      <c r="A170" s="62"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="61"/>
+      <c r="A171" s="62"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="61"/>
+      <c r="A172" s="62"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="61"/>
+      <c r="A173" s="62"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="61"/>
+      <c r="A174" s="62"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="61"/>
+      <c r="A175" s="62"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="61"/>
+      <c r="A176" s="62"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="61"/>
+      <c r="A177" s="62"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="61"/>
+      <c r="A178" s="62"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="61"/>
+      <c r="A179" s="62"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="61"/>
+      <c r="A180" s="62"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="61"/>
+      <c r="A181" s="62"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="61"/>
+      <c r="A182" s="62"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="61"/>
+      <c r="A183" s="62"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="61"/>
+      <c r="A184" s="62"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="61"/>
+      <c r="A185" s="62"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="61"/>
+      <c r="A186" s="62"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="61"/>
+      <c r="A187" s="62"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="61"/>
+      <c r="A188" s="62"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="61"/>
+      <c r="A189" s="62"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="61"/>
+      <c r="A190" s="62"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="61"/>
+      <c r="A191" s="62"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="61"/>
+      <c r="A192" s="62"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="61"/>
+      <c r="A193" s="62"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="61"/>
+      <c r="A194" s="62"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="61"/>
+      <c r="A195" s="62"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="61"/>
+      <c r="A196" s="62"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="61"/>
+      <c r="A197" s="62"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="61"/>
+      <c r="A198" s="62"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="61"/>
+      <c r="A199" s="62"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="61"/>
+      <c r="A200" s="62"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="61"/>
+      <c r="A201" s="62"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="61"/>
+      <c r="A202" s="62"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="61"/>
+      <c r="A203" s="62"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="61"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="61"/>
+      <c r="A205" s="62"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="61"/>
+      <c r="A206" s="62"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="61"/>
+      <c r="A207" s="62"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="61"/>
+      <c r="A208" s="62"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="61"/>
+      <c r="A209" s="62"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="61"/>
+      <c r="A210" s="62"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="61"/>
+      <c r="A211" s="62"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="61"/>
+      <c r="A212" s="62"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="61"/>
+      <c r="A213" s="62"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="61"/>
+      <c r="A214" s="62"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="61"/>
+      <c r="A215" s="62"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="61"/>
+      <c r="A216" s="62"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="61"/>
+      <c r="A217" s="62"/>
     </row>
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
@@ -18372,134 +18526,214 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>303</v>
+      <c r="A1" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>346</v>
+      </c>
+    </row>
     <row r="20" ht="12.75" customHeight="1"/>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
@@ -19481,6 +19715,7 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -19506,69 +19741,69 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="77" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>327</v>
+      <c r="A1" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="88">
         <v>0.0</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>328</v>
+      <c r="C2" s="87" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="88">
         <v>1.0</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>329</v>
+      <c r="C3" s="87" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="88">
         <v>2.0</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>330</v>
+      <c r="C4" s="87" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="88">
         <v>3.0</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>331</v>
+      <c r="C5" s="87" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="89" t="s">
         <v>213</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -19600,7 +19835,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -19652,652 +19887,652 @@
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="90"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="61"/>
+      <c r="A15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="61"/>
+      <c r="A34" s="62"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="61"/>
+      <c r="A52" s="62"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="61"/>
+      <c r="A93" s="62"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="61"/>
+      <c r="A95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="61"/>
+      <c r="A96" s="62"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="61"/>
+      <c r="A97" s="62"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="61"/>
+      <c r="A98" s="62"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="61"/>
+      <c r="A99" s="62"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="61"/>
+      <c r="A100" s="62"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="61"/>
+      <c r="A101" s="62"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="61"/>
+      <c r="A102" s="62"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="61"/>
+      <c r="A103" s="62"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="61"/>
+      <c r="A104" s="62"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="61"/>
+      <c r="A105" s="62"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="61"/>
+      <c r="A106" s="62"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="61"/>
+      <c r="A107" s="62"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="61"/>
+      <c r="A108" s="62"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="61"/>
+      <c r="A109" s="62"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="61"/>
+      <c r="A110" s="62"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="61"/>
+      <c r="A111" s="62"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="61"/>
+      <c r="A112" s="62"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="61"/>
+      <c r="A113" s="62"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="61"/>
+      <c r="A114" s="62"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="61"/>
+      <c r="A115" s="62"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="61"/>
+      <c r="A116" s="62"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="61"/>
+      <c r="A117" s="62"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="61"/>
+      <c r="A118" s="62"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="61"/>
+      <c r="A119" s="62"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="61"/>
+      <c r="A120" s="62"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="61"/>
+      <c r="A121" s="62"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="61"/>
+      <c r="A122" s="62"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="61"/>
+      <c r="A123" s="62"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="61"/>
+      <c r="A124" s="62"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="61"/>
+      <c r="A125" s="62"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="61"/>
+      <c r="A126" s="62"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="61"/>
+      <c r="A127" s="62"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="61"/>
+      <c r="A128" s="62"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="61"/>
+      <c r="A129" s="62"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="61"/>
+      <c r="A130" s="62"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="61"/>
+      <c r="A131" s="62"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="61"/>
+      <c r="A132" s="62"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="61"/>
+      <c r="A133" s="62"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="61"/>
+      <c r="A134" s="62"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="61"/>
+      <c r="A135" s="62"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="61"/>
+      <c r="A136" s="62"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="61"/>
+      <c r="A137" s="62"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="61"/>
+      <c r="A138" s="62"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="61"/>
+      <c r="A139" s="62"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="61"/>
+      <c r="A140" s="62"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="61"/>
+      <c r="A141" s="62"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="61"/>
+      <c r="A142" s="62"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="61"/>
+      <c r="A143" s="62"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="61"/>
+      <c r="A144" s="62"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="61"/>
+      <c r="A145" s="62"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="61"/>
+      <c r="A146" s="62"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="61"/>
+      <c r="A147" s="62"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="61"/>
+      <c r="A148" s="62"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="61"/>
+      <c r="A149" s="62"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="61"/>
+      <c r="A150" s="62"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="61"/>
+      <c r="A151" s="62"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="61"/>
+      <c r="A152" s="62"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="61"/>
+      <c r="A153" s="62"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="61"/>
+      <c r="A154" s="62"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="61"/>
+      <c r="A155" s="62"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="61"/>
+      <c r="A156" s="62"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="61"/>
+      <c r="A157" s="62"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="61"/>
+      <c r="A158" s="62"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="61"/>
+      <c r="A159" s="62"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="61"/>
+      <c r="A160" s="62"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="61"/>
+      <c r="A161" s="62"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="61"/>
+      <c r="A162" s="62"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="61"/>
+      <c r="A163" s="62"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="61"/>
+      <c r="A164" s="62"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="61"/>
+      <c r="A165" s="62"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="61"/>
+      <c r="A166" s="62"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="61"/>
+      <c r="A167" s="62"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="61"/>
+      <c r="A168" s="62"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="61"/>
+      <c r="A169" s="62"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="61"/>
+      <c r="A170" s="62"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="61"/>
+      <c r="A171" s="62"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="61"/>
+      <c r="A172" s="62"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="61"/>
+      <c r="A173" s="62"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="61"/>
+      <c r="A174" s="62"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="61"/>
+      <c r="A175" s="62"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="61"/>
+      <c r="A176" s="62"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="61"/>
+      <c r="A177" s="62"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="61"/>
+      <c r="A178" s="62"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="61"/>
+      <c r="A179" s="62"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="61"/>
+      <c r="A180" s="62"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="61"/>
+      <c r="A181" s="62"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="61"/>
+      <c r="A182" s="62"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="61"/>
+      <c r="A183" s="62"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="61"/>
+      <c r="A184" s="62"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="61"/>
+      <c r="A185" s="62"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="61"/>
+      <c r="A186" s="62"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="61"/>
+      <c r="A187" s="62"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="61"/>
+      <c r="A188" s="62"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="61"/>
+      <c r="A189" s="62"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="61"/>
+      <c r="A190" s="62"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="61"/>
+      <c r="A191" s="62"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="61"/>
+      <c r="A192" s="62"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="61"/>
+      <c r="A193" s="62"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="61"/>
+      <c r="A194" s="62"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="61"/>
+      <c r="A195" s="62"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="61"/>
+      <c r="A196" s="62"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="61"/>
+      <c r="A197" s="62"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="61"/>
+      <c r="A198" s="62"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="61"/>
+      <c r="A199" s="62"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="61"/>
+      <c r="A200" s="62"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="61"/>
+      <c r="A201" s="62"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="61"/>
+      <c r="A202" s="62"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="61"/>
+      <c r="A203" s="62"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="61"/>
+      <c r="A204" s="62"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="61"/>
+      <c r="A205" s="62"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="61"/>
+      <c r="A206" s="62"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="61"/>
+      <c r="A207" s="62"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="61"/>
+      <c r="A208" s="62"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="61"/>
+      <c r="A209" s="62"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="61"/>
+      <c r="A210" s="62"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="61"/>
+      <c r="A211" s="62"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="61"/>
+      <c r="A212" s="62"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="61"/>
+      <c r="A213" s="62"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="61"/>
+      <c r="A214" s="62"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="61"/>
+      <c r="A215" s="62"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="61"/>
+      <c r="A216" s="62"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="61"/>
+      <c r="A217" s="62"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="61"/>
+      <c r="A218" s="62"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="61"/>
+      <c r="A219" s="62"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="61"/>
+      <c r="A220" s="62"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -1198,10 +1198,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Contrat de maintenance</t>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="358">
   <si>
     <t>Date</t>
   </si>
@@ -783,6 +783,12 @@
   </si>
   <si>
     <t>input</t>
+  </si>
+  <si>
+    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
   </si>
   <si>
     <t>checkbox</t>
@@ -6336,7 +6342,9 @@
       <c r="C6" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="43" t="s">
+        <v>219</v>
+      </c>
       <c r="E6" s="43" t="s">
         <v>218</v>
       </c>
@@ -6363,7 +6371,9 @@
         <v>218</v>
       </c>
       <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
+      <c r="U6" s="43" t="s">
+        <v>220</v>
+      </c>
       <c r="V6" s="42"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -6418,22 +6428,22 @@
         <v>218</v>
       </c>
       <c r="AQ6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AR6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AS6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AT6" s="43" t="s">
         <v>218</v>
       </c>
       <c r="AU6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AW6" s="42"/>
       <c r="AX6" s="42"/>
@@ -6449,10 +6459,10 @@
         <v>218</v>
       </c>
       <c r="BD6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BE6" s="43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BF6" s="43" t="s">
         <v>218</v>
@@ -6461,7 +6471,7 @@
         <v>218</v>
       </c>
       <c r="BH6" s="43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
@@ -6494,7 +6504,7 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -6572,70 +6582,70 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>223</v>
-      </c>
       <c r="K8" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O8" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="P8" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="W8" s="21">
         <v>1.0</v>
@@ -6648,10 +6658,10 @@
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB8" s="19">
         <v>1000.0</v>
@@ -6667,16 +6677,16 @@
       </c>
       <c r="AF8" s="52"/>
       <c r="AG8" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AK8" s="53">
         <v>44920.0</v>
@@ -6685,10 +6695,10 @@
         <v>10000.0</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO8" s="53">
         <v>45651.0</v>
@@ -6697,35 +6707,35 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AT8" s="54" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AZ8" s="51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6737,40 +6747,40 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BF8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BG8" s="53">
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BJ8" s="19">
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BL8" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BM8" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BN8" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BO8" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BP8" s="56"/>
       <c r="BQ8" s="56"/>
@@ -6782,31 +6792,31 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J9" s="51">
         <v>1000.0</v>
@@ -6815,37 +6825,37 @@
         <v>2000.0</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M9" s="51">
         <v>3000.0</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
@@ -6858,10 +6868,10 @@
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6877,16 +6887,16 @@
       </c>
       <c r="AF9" s="52"/>
       <c r="AG9" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK9" s="58">
         <v>43922.0</v>
@@ -6895,10 +6905,10 @@
         <v>20000.0</v>
       </c>
       <c r="AM9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AO9" s="58">
         <v>44652.0</v>
@@ -6907,35 +6917,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AT9" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AZ9" s="57" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6947,88 +6957,88 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BF9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BG9" s="58">
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BJ9" s="19">
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BL9" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BM9" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BN9" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BO9" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BP9" s="56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BQ9" s="56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BR9" s="19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BS9" s="56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BT9" s="56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BU9" s="56" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BV9" s="56"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J10" s="51">
         <v>1001.0</v>
@@ -7037,37 +7047,37 @@
         <v>2001.0</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="51">
         <v>3001.0</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -7080,10 +7090,10 @@
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -7099,16 +7109,16 @@
       </c>
       <c r="AF10" s="52"/>
       <c r="AG10" s="19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AK10" s="58">
         <v>43101.0</v>
@@ -7117,10 +7127,10 @@
         <v>40000.0</v>
       </c>
       <c r="AM10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AO10" s="58">
         <v>43831.0</v>
@@ -7129,35 +7139,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AT10" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AZ10" s="57" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -7169,40 +7179,40 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BF10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BG10" s="58">
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BJ10" s="19">
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BL10" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BM10" s="55" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BN10" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BO10" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BP10" s="56"/>
       <c r="BQ10" s="56"/>
@@ -7214,7 +7224,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7247,7 +7257,7 @@
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
@@ -7299,7 +7309,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -7332,7 +7342,7 @@
       </c>
       <c r="Z12" s="60"/>
       <c r="AA12" s="32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
@@ -7631,7 +7641,7 @@
       <c r="G18" s="54"/>
       <c r="J18" s="54"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="62"/>
       <c r="B19" s="54"/>
       <c r="F19" s="54"/>
@@ -13835,7 +13845,7 @@
       <c r="B5" s="67"/>
       <c r="C5" s="66"/>
       <c r="D5" s="68" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E5" s="66"/>
     </row>
@@ -13850,7 +13860,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -15358,7 +15368,7 @@
       <c r="B2" s="65"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -15397,7 +15407,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
@@ -15407,102 +15417,102 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E10" s="73">
         <v>40.0</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -17008,108 +17018,108 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B10" s="77">
         <v>1000.0</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B11" s="77">
         <v>2000.0</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B12" s="77">
         <v>3000.0</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B13" s="77">
         <v>1001.0</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B14" s="77">
         <v>2001.0</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B15" s="77">
         <v>3001.0</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -18527,211 +18537,211 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1"/>
@@ -19742,57 +19752,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" s="88">
         <v>0.0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" s="88">
         <v>1.0</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B4" s="88">
         <v>2.0</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B5" s="88">
         <v>3.0</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
@@ -19800,10 +19810,10 @@
         <v>213</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -19835,7 +19845,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -19888,7 +19898,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B6" s="90"/>
     </row>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="GNi4M6dfczYGEESwxLSvH/lSkdvK9ojAVpOWh8dBYGw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="PVtqaLTgkzYvrKEX0Lk7dX9cPSAXojYmwva0V7u1HQ0="/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="352">
   <si>
     <t>Date</t>
   </si>
@@ -1171,34 +1171,16 @@
     <t>//button[@value='Sélectionner']</t>
   </si>
   <si>
-    <t>ModifierNotes</t>
+    <t>Memo_ModifierNotes</t>
   </si>
   <si>
     <t>//div[@id='zoneID_NUMDOC1']//a[@title='Modifier le mémo']/i</t>
   </si>
   <si>
-    <t>ModifierConsignes</t>
+    <t>Memo_ModifierConsignes</t>
   </si>
   <si>
     <t>//div[@id='zoneID_NUMDOC2']//a[@title='Modifier le mémo']/i</t>
-  </si>
-  <si>
-    <t>frameNote</t>
-  </si>
-  <si>
-    <t>//iframe[@class='cke_wysiwyg_frame cke_reset']</t>
-  </si>
-  <si>
-    <t>textNote</t>
-  </si>
-  <si>
-    <t>//p/span</t>
-  </si>
-  <si>
-    <t>BTN_ValiderEtFermerNote</t>
-  </si>
-  <si>
-    <t>//button[@value='Valider et Fermer']</t>
   </si>
   <si>
     <t>PARA</t>
@@ -18530,7 +18512,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="2" max="2" width="20.38"/>
     <col customWidth="1" min="3" max="3" width="86.38"/>
     <col customWidth="1" min="4" max="26" width="10.63"/>
   </cols>
@@ -18711,39 +18693,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>348</v>
-      </c>
-    </row>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
     <row r="20" ht="12.75" customHeight="1"/>
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
@@ -19722,10 +19674,6 @@
     <row r="995" ht="12.75" customHeight="1"/>
     <row r="996" ht="12.75" customHeight="1"/>
     <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-    <row r="1001" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -19752,13 +19700,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -19769,7 +19717,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -19780,7 +19728,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
@@ -19791,7 +19739,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -19802,7 +19750,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
@@ -19813,7 +19761,7 @@
         <v>245</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -19845,7 +19793,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="PVtqaLTgkzYvrKEX0Lk7dX9cPSAXojYmwva0V7u1HQ0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="ArDOofAnrQseOQfJvwwPRP5qLlq9c7QsXOLTP1N6hko="/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="351">
   <si>
     <t>Date</t>
   </si>
@@ -833,6 +833,9 @@
     <t>CONS01</t>
   </si>
   <si>
+    <t>$ORDRE</t>
+  </si>
+  <si>
     <t>EQU01</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
     <t>CRITICITE01</t>
   </si>
   <si>
+    <t>KM</t>
+  </si>
+  <si>
     <t>DEFAUT</t>
   </si>
   <si>
@@ -1034,25 +1040,16 @@
     <t>NOTES CONSIGNES SECURITE</t>
   </si>
   <si>
-    <t>NOTES DU CONTRAT</t>
-  </si>
-  <si>
     <t>NOTES EQUIPEMENT 1000</t>
   </si>
   <si>
     <t>NOTES CONSIGNES SECURITE 2000</t>
   </si>
   <si>
-    <t>NOTES DU CONTRAT 3000</t>
-  </si>
-  <si>
     <t>NOTES EQUIPEMENT 1001 Modifié</t>
   </si>
   <si>
     <t>NOTES CONSIGNES SECURITE 2001  Modifié</t>
-  </si>
-  <si>
-    <t>NOTES DU CONTRAT 3001</t>
   </si>
   <si>
     <t>TAB</t>
@@ -6145,9 +6142,7 @@
       <c r="L5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>216</v>
-      </c>
+      <c r="M5" s="41"/>
       <c r="N5" s="40" t="s">
         <v>9</v>
       </c>
@@ -6599,8 +6594,8 @@
       <c r="L8" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="M8" s="50" t="s">
-        <v>225</v>
+      <c r="M8" s="51" t="s">
+        <v>230</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>229</v>
@@ -6632,15 +6627,15 @@
       <c r="W8" s="21">
         <v>1.0</v>
       </c>
-      <c r="X8" s="21">
-        <v>1.0</v>
+      <c r="X8" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="Y8" s="18" t="str">
         <f t="shared" ref="Y8:Y12" si="1">CONCATENATE(UPPER(AA8),REPT(".",30-LEN(AA8)))</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA8" s="19" t="s">
         <v>224</v>
@@ -6659,16 +6654,16 @@
       </c>
       <c r="AF8" s="52"/>
       <c r="AG8" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="53">
         <v>44920.0</v>
@@ -6680,7 +6675,7 @@
         <v>229</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO8" s="53">
         <v>45651.0</v>
@@ -6689,23 +6684,23 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AT8" s="54" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="AU8" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AV8" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="AV8" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="AW8" s="19" t="s">
         <v>229</v>
@@ -6717,7 +6712,7 @@
         <v>229</v>
       </c>
       <c r="AZ8" s="51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6729,19 +6724,19 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BF8" s="19" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="BG8" s="53">
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BI8" s="19" t="s">
         <v>229</v>
@@ -6750,19 +6745,19 @@
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BL8" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BM8" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BN8" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BO8" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BP8" s="56"/>
       <c r="BQ8" s="56"/>
@@ -6774,19 +6769,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>229</v>
@@ -6809,14 +6804,14 @@
       <c r="L9" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="M9" s="51">
-        <v>3000.0</v>
+      <c r="M9" s="51" t="s">
+        <v>230</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>229</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P9" s="57" t="s">
         <v>230</v>
@@ -6828,16 +6823,16 @@
         <v>229</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
@@ -6850,10 +6845,10 @@
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6869,16 +6864,16 @@
       </c>
       <c r="AF9" s="52"/>
       <c r="AG9" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AK9" s="58">
         <v>43922.0</v>
@@ -6890,7 +6885,7 @@
         <v>229</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AO9" s="58">
         <v>44652.0</v>
@@ -6899,23 +6894,23 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AT9" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW9" s="19" t="s">
         <v>229</v>
@@ -6927,7 +6922,7 @@
         <v>229</v>
       </c>
       <c r="AZ9" s="57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6939,10 +6934,10 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BF9" s="19" t="s">
         <v>229</v>
@@ -6951,7 +6946,7 @@
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BI9" s="19" t="s">
         <v>229</v>
@@ -6960,55 +6955,55 @@
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BL9" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BM9" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BN9" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BO9" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BP9" s="56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BQ9" s="56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BR9" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BS9" s="56" t="s">
         <v>233</v>
       </c>
       <c r="BT9" s="56" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="BU9" s="56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BV9" s="56"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>229</v>
@@ -7031,14 +7026,14 @@
       <c r="L10" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="M10" s="51">
-        <v>3001.0</v>
+      <c r="M10" s="51" t="s">
+        <v>230</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>229</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P10" s="57" t="s">
         <v>230</v>
@@ -7050,16 +7045,16 @@
         <v>229</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -7072,10 +7067,10 @@
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -7091,16 +7086,16 @@
       </c>
       <c r="AF10" s="52"/>
       <c r="AG10" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AK10" s="58">
         <v>43101.0</v>
@@ -7112,7 +7107,7 @@
         <v>229</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AO10" s="58">
         <v>43831.0</v>
@@ -7121,23 +7116,23 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AT10" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AW10" s="19" t="s">
         <v>229</v>
@@ -7149,7 +7144,7 @@
         <v>229</v>
       </c>
       <c r="AZ10" s="57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -7161,10 +7156,10 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BF10" s="19" t="s">
         <v>229</v>
@@ -7173,7 +7168,7 @@
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BI10" s="19" t="s">
         <v>229</v>
@@ -7182,19 +7177,19 @@
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BL10" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BM10" s="55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BN10" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BO10" s="55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BP10" s="56"/>
       <c r="BQ10" s="56"/>
@@ -7206,7 +7201,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7239,7 +7234,7 @@
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
@@ -7291,7 +7286,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -7324,7 +7319,7 @@
       </c>
       <c r="Z12" s="60"/>
       <c r="AA12" s="32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
@@ -13827,7 +13822,7 @@
       <c r="B5" s="67"/>
       <c r="C5" s="66"/>
       <c r="D5" s="68" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E5" s="66"/>
     </row>
@@ -15350,7 +15345,7 @@
       <c r="B2" s="65"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -15399,96 +15394,96 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E10" s="73">
         <v>40.0</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>230</v>
@@ -17013,7 +17008,7 @@
         <v>225</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -17024,85 +17019,61 @@
         <v>225</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>302</v>
+      <c r="A9" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="77">
+        <v>1000.0</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B10" s="77">
-        <v>1000.0</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>303</v>
+        <v>2000.0</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="76" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B11" s="77">
-        <v>2000.0</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>304</v>
+        <v>1001.0</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="76" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B12" s="77">
-        <v>3000.0</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>305</v>
+        <v>2001.0</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="77">
-        <v>1001.0</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>306</v>
-      </c>
+      <c r="A13" s="62"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="77">
-        <v>2001.0</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>307</v>
-      </c>
+      <c r="A14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="77">
-        <v>3001.0</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>308</v>
-      </c>
+      <c r="A15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="62"/>
@@ -17701,15 +17672,9 @@
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="62"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
-    </row>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
@@ -18487,9 +18452,6 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -18519,178 +18481,178 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="C1" s="82" t="s">
         <v>310</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>327</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>333</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>335</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="78" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="78" t="s">
         <v>337</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="84" t="s">
         <v>339</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>341</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -19700,57 +19662,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>344</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="87" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B2" s="88">
         <v>0.0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="87" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B3" s="88">
         <v>1.0</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="87" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" s="88">
         <v>2.0</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="87" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" s="88">
         <v>3.0</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -19758,10 +19720,10 @@
         <v>213</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -19793,7 +19755,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="ArDOofAnrQseOQfJvwwPRP5qLlq9c7QsXOLTP1N6hko="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="gfwQxj5TI3Hpaihv11e5dASd5M+1N7p0MHcaYrha0D8="/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="354">
   <si>
     <t>Date</t>
   </si>
@@ -354,6 +354,9 @@
     <t>Ordre de l'équipement entre les équipements frères</t>
   </si>
   <si>
+    <t>Démarre à 0</t>
+  </si>
+  <si>
     <t>ST_CODCOU</t>
   </si>
   <si>
@@ -737,6 +740,9 @@
     <t>ST_DESID_CODCONTRA</t>
   </si>
   <si>
+    <t>ST_DESID_CODCLI</t>
+  </si>
+  <si>
     <t>RO.IMP*001*ID_CODIMP</t>
   </si>
   <si>
@@ -1032,6 +1038,9 @@
   </si>
   <si>
     <t>ART_RT_ART_006_SRS_01</t>
+  </si>
+  <si>
+    <t>TYPENOTE</t>
   </si>
   <si>
     <t>NOTES EQUIPEMENT</t>
@@ -1217,7 +1226,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1326,8 +1335,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA7E3B7"/>
         <bgColor rgb="FFA7E3B7"/>
       </patternFill>
@@ -1493,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1700,6 +1721,15 @@
     <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="16" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1716,11 +1746,11 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="17" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="17" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="18" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1738,7 +1768,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="18" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="19" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3356,8 +3386,8 @@
       <c r="D15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>29</v>
+      <c r="E15" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -3503,6 +3533,9 @@
       <c r="E24" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="F24" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="18" t="s">
@@ -3537,13 +3570,16 @@
       <c r="E26" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="G26" s="19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>38</v>
@@ -3554,10 +3590,10 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>38</v>
@@ -3568,13 +3604,13 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>29</v>
@@ -3582,10 +3618,10 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>38</v>
@@ -3596,10 +3632,10 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>27</v>
@@ -3610,10 +3646,10 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>27</v>
@@ -3624,10 +3660,10 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>27</v>
@@ -3638,13 +3674,13 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="24" t="s">
@@ -3654,13 +3690,13 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>29</v>
@@ -3668,13 +3704,13 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>29</v>
@@ -3682,13 +3718,13 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>29</v>
@@ -3696,13 +3732,13 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>29</v>
@@ -3710,13 +3746,13 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>29</v>
@@ -3724,10 +3760,10 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>27</v>
@@ -3738,13 +3774,13 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>29</v>
@@ -3752,13 +3788,13 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>29</v>
@@ -3766,13 +3802,13 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>29</v>
@@ -3780,10 +3816,10 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>27</v>
@@ -3794,13 +3830,13 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>29</v>
@@ -3808,13 +3844,13 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>29</v>
@@ -3822,13 +3858,13 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>29</v>
@@ -3836,10 +3872,10 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>32</v>
@@ -3850,13 +3886,13 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>29</v>
@@ -3864,13 +3900,13 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>29</v>
@@ -3878,10 +3914,10 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>27</v>
@@ -3892,10 +3928,10 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>27</v>
@@ -3906,10 +3942,10 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>27</v>
@@ -3920,10 +3956,10 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>61</v>
@@ -3940,10 +3976,10 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>27</v>
@@ -3954,13 +3990,13 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>29</v>
@@ -3968,10 +4004,10 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>27</v>
@@ -3982,13 +4018,13 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>29</v>
@@ -3996,10 +4032,10 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>27</v>
@@ -4013,10 +4049,10 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>38</v>
@@ -4033,13 +4069,13 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>29</v>
@@ -4047,10 +4083,10 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>38</v>
@@ -4064,10 +4100,10 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>27</v>
@@ -4078,10 +4114,10 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>27</v>
@@ -4095,10 +4131,10 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>38</v>
@@ -4113,10 +4149,10 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>61</v>
@@ -4133,10 +4169,10 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>61</v>
@@ -4153,13 +4189,13 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>28</v>
@@ -4171,13 +4207,13 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>28</v>
@@ -4189,10 +4225,10 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="28">
@@ -4222,7 +4258,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>38</v>
@@ -4237,13 +4273,13 @@
     </row>
     <row r="73">
       <c r="A73" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>28</v>
@@ -4256,13 +4292,13 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="D74" s="34"/>
       <c r="E74" s="22" t="s">
@@ -4272,10 +4308,10 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="28">
@@ -4302,10 +4338,10 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>38</v>
@@ -4314,16 +4350,16 @@
         <v>28</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F77" s="34"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>38</v>
@@ -4338,10 +4374,10 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C79" s="32" t="s">
         <v>27</v>
@@ -4354,10 +4390,10 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>61</v>
@@ -4370,10 +4406,10 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C81" s="30"/>
       <c r="D81" s="28">
@@ -4384,7 +4420,7 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>54</v>
@@ -4402,13 +4438,13 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="34"/>
       <c r="E83" s="22" t="s">
@@ -5384,7 +5420,7 @@
     <col customWidth="1" min="69" max="69" width="20.25"/>
     <col customWidth="1" min="72" max="72" width="18.13"/>
     <col customWidth="1" min="73" max="73" width="20.0"/>
-    <col customWidth="1" min="74" max="74" width="21.75"/>
+    <col customWidth="1" min="74" max="75" width="21.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -5461,154 +5497,157 @@
         <v>78</v>
       </c>
       <c r="Y1" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD1" s="37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG1" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH1" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI1" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ1" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK1" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL1" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM1" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN1" s="37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO1" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AP1" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AQ1" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AS1" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT1" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AU1" s="37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AV1" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AW1" s="37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AX1" s="37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AY1" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AZ1" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BA1" s="37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BB1" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BD1" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BE1" s="37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BF1" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BH1" s="37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BI1" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BJ1" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BK1" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BL1" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BM1" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BN1" s="37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BO1" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BP1" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BQ1" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BR1" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BS1" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BT1" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BU1" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BV1" s="39" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="BW1" s="39" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -5617,13 +5656,13 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>9</v>
@@ -5651,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>9</v>
@@ -5663,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T2" s="40" t="s">
         <v>9</v>
@@ -5816,10 +5855,11 @@
       <c r="BT2" s="42"/>
       <c r="BU2" s="42"/>
       <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>9</v>
@@ -5828,7 +5868,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>9</v>
@@ -5879,7 +5919,7 @@
         <v>9</v>
       </c>
       <c r="U3" s="41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V3" s="40" t="s">
         <v>9</v>
@@ -5987,7 +6027,7 @@
         <v>9</v>
       </c>
       <c r="BE3" s="41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BF3" s="40" t="s">
         <v>9</v>
@@ -6026,10 +6066,11 @@
       <c r="BT3" s="42"/>
       <c r="BU3" s="42"/>
       <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -6090,7 +6131,7 @@
       <c r="BF4" s="40"/>
       <c r="BG4" s="40"/>
       <c r="BH4" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BI4" s="40"/>
       <c r="BJ4" s="40"/>
@@ -6106,13 +6147,14 @@
       <c r="BT4" s="42"/>
       <c r="BU4" s="42"/>
       <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>9</v>
@@ -6134,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L5" s="40" t="s">
         <v>9</v>
@@ -6310,25 +6352,26 @@
       <c r="BT5" s="42"/>
       <c r="BU5" s="42"/>
       <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -6337,151 +6380,158 @@
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
       <c r="S6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T6" s="42"/>
       <c r="U6" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="V6" s="42"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AC6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AE6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF6" s="42"/>
       <c r="AG6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AH6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AI6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AJ6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM6" s="42"/>
       <c r="AN6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AP6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AQ6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AR6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AS6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AT6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AU6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AV6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AW6" s="42"/>
       <c r="AX6" s="42"/>
       <c r="AY6" s="42"/>
       <c r="AZ6" s="42"/>
       <c r="BA6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BB6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BC6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BD6" s="43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BE6" s="43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BF6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BG6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BH6" s="43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
+      <c r="BK6" s="43" t="s">
+        <v>220</v>
+      </c>
       <c r="BL6" s="42"/>
       <c r="BM6" s="42"/>
       <c r="BN6" s="42"/>
       <c r="BO6" s="42"/>
       <c r="BP6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BQ6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BR6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BS6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BT6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BU6" s="43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BV6" s="44" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="BW6" s="44" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -6556,89 +6606,90 @@
       <c r="BT7" s="46"/>
       <c r="BU7" s="46"/>
       <c r="BV7" s="46"/>
+      <c r="BW7" s="46"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>225</v>
-      </c>
       <c r="K8" s="50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O8" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="P8" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="T8" s="21">
         <v>0.0</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="W8" s="21">
         <v>1.0</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y8" s="18" t="str">
         <f t="shared" ref="Y8:Y12" si="1">CONCATENATE(UPPER(AA8),REPT(".",30-LEN(AA8)))</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AB8" s="19">
         <v>1000.0</v>
@@ -6654,16 +6705,16 @@
       </c>
       <c r="AF8" s="52"/>
       <c r="AG8" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AK8" s="53">
         <v>44920.0</v>
@@ -6672,10 +6723,10 @@
         <v>10000.0</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AO8" s="53">
         <v>45651.0</v>
@@ -6684,35 +6735,35 @@
         <v>10000.0</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AT8" s="54" t="str">
         <f t="shared" ref="AT8:AT10" si="2">Y8</f>
         <v>RT.EQU.001.CRE.01.............</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AZ8" s="51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BA8" s="19">
         <v>100000.0</v>
@@ -6724,40 +6775,40 @@
         <v>1000000.0</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BE8" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BF8" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BG8" s="53">
         <v>44920.0</v>
       </c>
       <c r="BH8" s="25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BJ8" s="19">
         <v>1000.0</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BL8" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BM8" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BN8" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BO8" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BP8" s="56"/>
       <c r="BQ8" s="56"/>
@@ -6766,34 +6817,35 @@
       <c r="BT8" s="56"/>
       <c r="BU8" s="56"/>
       <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B9" s="21">
         <v>1000.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J9" s="51">
         <v>1000.0</v>
@@ -6802,53 +6854,53 @@
         <v>2000.0</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T9" s="21">
         <v>0.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W9" s="21">
         <v>1.0</v>
       </c>
       <c r="X9" s="21">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" s="18" t="str">
         <f t="shared" si="1"/>
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB9" s="19">
         <v>1001.0</v>
@@ -6864,16 +6916,16 @@
       </c>
       <c r="AF9" s="52"/>
       <c r="AG9" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK9" s="58">
         <v>43922.0</v>
@@ -6882,10 +6934,10 @@
         <v>20000.0</v>
       </c>
       <c r="AM9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AO9" s="58">
         <v>44652.0</v>
@@ -6894,35 +6946,35 @@
         <v>20000.0</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AT9" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.LEC.01.............</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AZ9" s="57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BA9" s="19">
         <v>110000.0</v>
@@ -6934,88 +6986,93 @@
         <v>2000000.0</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BE9" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BF9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BG9" s="58">
         <v>44652.0</v>
       </c>
       <c r="BH9" s="25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BJ9" s="19">
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="BL9" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BM9" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BN9" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BO9" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BP9" s="56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="BQ9" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR9" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="BS9" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT9" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="BU9" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV9" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW9" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="BR9" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS9" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="BT9" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="BU9" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="BV9" s="56"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J10" s="51">
         <v>1001.0</v>
@@ -7024,53 +7081,53 @@
         <v>2001.0</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
       </c>
       <c r="X10" s="21">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y10" s="18" t="str">
         <f t="shared" si="1"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -7086,16 +7143,16 @@
       </c>
       <c r="AF10" s="52"/>
       <c r="AG10" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK10" s="58">
         <v>43101.0</v>
@@ -7104,10 +7161,10 @@
         <v>40000.0</v>
       </c>
       <c r="AM10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AO10" s="58">
         <v>43831.0</v>
@@ -7116,35 +7173,35 @@
         <v>40000.0</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AT10" s="54" t="str">
         <f t="shared" si="2"/>
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AZ10" s="57" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BA10" s="19">
         <v>220000.0</v>
@@ -7156,40 +7213,40 @@
         <v>4000000.0</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BF10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BG10" s="58">
         <v>43831.0</v>
       </c>
       <c r="BH10" s="25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BJ10" s="19">
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BL10" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BM10" s="55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BN10" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BO10" s="55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BP10" s="56"/>
       <c r="BQ10" s="56"/>
@@ -7198,10 +7255,11 @@
       <c r="BT10" s="56"/>
       <c r="BU10" s="56"/>
       <c r="BV10" s="56"/>
+      <c r="BW10" s="56"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7234,7 +7292,7 @@
       </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
@@ -7283,10 +7341,11 @@
       <c r="BT11" s="59"/>
       <c r="BU11" s="59"/>
       <c r="BV11" s="59"/>
+      <c r="BW11" s="59"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -7319,7 +7378,7 @@
       </c>
       <c r="Z12" s="60"/>
       <c r="AA12" s="32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
@@ -7368,6 +7427,7 @@
       <c r="BT12" s="59"/>
       <c r="BU12" s="59"/>
       <c r="BV12" s="59"/>
+      <c r="BW12" s="59"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="47"/>
@@ -7444,6 +7504,7 @@
       <c r="BT13" s="59"/>
       <c r="BU13" s="59"/>
       <c r="BV13" s="59"/>
+      <c r="BW13" s="59"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="47"/>
@@ -7520,6 +7581,7 @@
       <c r="BT14" s="59"/>
       <c r="BU14" s="59"/>
       <c r="BV14" s="59"/>
+      <c r="BW14" s="59"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
@@ -7596,6 +7658,7 @@
       <c r="BT15" s="59"/>
       <c r="BU15" s="59"/>
       <c r="BV15" s="59"/>
+      <c r="BW15" s="59"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="62"/>
@@ -13752,7 +13815,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>25</v>
@@ -13761,10 +13824,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -13799,7 +13862,7 @@
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="66"/>
@@ -13808,7 +13871,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
@@ -13817,18 +13880,18 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="66"/>
       <c r="D5" s="68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E5" s="66"/>
     </row>
     <row r="6">
       <c r="A6" s="65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="66"/>
@@ -13837,7 +13900,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -15300,22 +15363,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -15345,14 +15408,14 @@
       <c r="B2" s="65"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="66"/>
@@ -15362,7 +15425,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
@@ -15372,19 +15435,19 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="66"/>
       <c r="D5" s="68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
@@ -15394,102 +15457,102 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E10" s="73">
         <v>40.0</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -16931,15 +16994,17 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="37"/>
+        <v>194</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>304</v>
+      </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -16969,101 +17034,112 @@
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="66"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="66"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>302</v>
+        <v>305</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>303</v>
+        <v>306</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="77">
+      <c r="A9" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="80">
         <v>1000.0</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>304</v>
+      <c r="C9" s="81" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="77">
+      <c r="A10" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="80">
         <v>2000.0</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>305</v>
+      <c r="C10" s="82" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="77">
+      <c r="A11" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="80">
         <v>1001.0</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="77">
+      <c r="A12" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="80">
         <v>2001.0</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>307</v>
+      <c r="C12" s="83" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -18480,179 +18556,179 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>310</v>
+      <c r="A1" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>333</v>
+      <c r="A12" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>334</v>
+      <c r="A13" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>337</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>337</v>
+      <c r="A14" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>339</v>
+      <c r="A15" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="83" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>341</v>
+      <c r="A16" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -19661,69 +19737,69 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>344</v>
+      <c r="A1" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="88">
+      <c r="A2" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="91">
         <v>0.0</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>345</v>
+      <c r="C2" s="90" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="88">
+      <c r="A3" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="91">
         <v>1.0</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>346</v>
+      <c r="C3" s="90" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="88">
+      <c r="A4" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="91">
         <v>2.0</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>347</v>
+      <c r="C4" s="90" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="88">
+      <c r="A5" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="91">
         <v>3.0</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>348</v>
+      <c r="C5" s="90" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
-        <v>213</v>
+      <c r="A6" s="92" t="s">
+        <v>215</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -19755,7 +19831,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -19790,27 +19866,27 @@
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" s="40"/>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" s="40"/>
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B5" s="40"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="90"/>
+      <c r="A6" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="93"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="62"/>

--- a/TNR_JDD/JDD.RT.EQU.xlsx
+++ b/TNR_JDD/JDD.RT.EQU.xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="gfwQxj5TI3Hpaihv11e5dASd5M+1N7p0MHcaYrha0D8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="HY4QEJEqX7Ebm5KyOIPJefNDlb0+FJti3jn/EC9+3SI="/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="356">
   <si>
     <t>Date</t>
   </si>
@@ -926,6 +926,9 @@
     <t>OBSERVATION 02</t>
   </si>
   <si>
+    <t>HEURES</t>
+  </si>
+  <si>
     <t>CLI.RT.EQU.001.LEC.01</t>
   </si>
   <si>
@@ -984,6 +987,9 @@
   </si>
   <si>
     <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>CYCLES</t>
   </si>
   <si>
     <t>CLI.UPD.RT.EQU.001.MAJ.01</t>
@@ -1672,6 +1678,9 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1708,9 +1717,6 @@
     </xf>
     <xf borderId="0" fillId="12" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -6991,8 +6997,8 @@
       <c r="BE9" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="BF9" s="19" t="s">
-        <v>231</v>
+      <c r="BF9" s="59" t="s">
+        <v>266</v>
       </c>
       <c r="BG9" s="58">
         <v>44652.0</v>
@@ -7007,7 +7013,7 @@
         <v>1001.0</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BL9" s="55" t="s">
         <v>246</v>
@@ -7022,19 +7028,19 @@
         <v>251</v>
       </c>
       <c r="BP9" s="56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BQ9" s="56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BR9" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BS9" s="56" t="s">
         <v>235</v>
       </c>
       <c r="BT9" s="56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BU9" s="56" t="s">
         <v>256</v>
@@ -7043,24 +7049,24 @@
         <v>232</v>
       </c>
       <c r="BW9" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="21">
         <v>1001.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>231</v>
@@ -7090,7 +7096,7 @@
         <v>231</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" s="57" t="s">
         <v>232</v>
@@ -7102,16 +7108,16 @@
         <v>231</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T10" s="21">
         <v>0.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W10" s="21">
         <v>1.0</v>
@@ -7124,10 +7130,10 @@
         <v>RT.EQU.001.MAJ.01.............</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB10" s="19">
         <v>1003.0</v>
@@ -7143,16 +7149,16 @@
       </c>
       <c r="AF10" s="52"/>
       <c r="AG10" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK10" s="58">
         <v>43101.0</v>
@@ -7164,7 +7170,7 @@
         <v>231</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO10" s="58">
         <v>43831.0</v>
@@ -7216,10 +7222,10 @@
         <v>244</v>
       </c>
       <c r="BE10" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BF10" s="19" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="BG10" s="58">
         <v>43831.0</v>
@@ -7234,7 +7240,7 @@
         <v>1003.0</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BL10" s="55" t="s">
         <v>246</v>
@@ -7259,7 +7265,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B11" s="21">
         <v>1002.0</v>
@@ -7267,19 +7273,19 @@
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
       <c r="O11" s="52"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
       <c r="S11" s="52"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -7290,9 +7296,9 @@
         <f t="shared" si="1"/>
         <v>RT.EQU.001.SUP.01.............</v>
       </c>
-      <c r="Z11" s="60"/>
+      <c r="Z11" s="61"/>
       <c r="AA11" s="32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
@@ -7305,7 +7311,7 @@
       <c r="AJ11" s="52"/>
       <c r="AK11" s="52"/>
       <c r="AL11" s="52"/>
-      <c r="AM11" s="61"/>
+      <c r="AM11" s="62"/>
       <c r="AN11" s="52"/>
       <c r="AO11" s="52"/>
       <c r="AP11" s="52"/>
@@ -7315,37 +7321,37 @@
       <c r="AT11" s="52"/>
       <c r="AU11" s="52"/>
       <c r="AV11" s="52"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="59"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="60"/>
       <c r="BA11" s="52"/>
       <c r="BB11" s="52"/>
       <c r="BC11" s="52"/>
       <c r="BD11" s="52"/>
       <c r="BE11" s="52"/>
-      <c r="BF11" s="61"/>
+      <c r="BF11" s="62"/>
       <c r="BG11" s="52"/>
       <c r="BH11" s="52"/>
-      <c r="BI11" s="61"/>
+      <c r="BI11" s="62"/>
       <c r="BJ11" s="52"/>
       <c r="BK11" s="52"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="59"/>
-      <c r="BN11" s="59"/>
-      <c r="BO11" s="59"/>
-      <c r="BP11" s="59"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="59"/>
-      <c r="BS11" s="59"/>
-      <c r="BT11" s="59"/>
-      <c r="BU11" s="59"/>
-      <c r="BV11" s="59"/>
-      <c r="BW11" s="59"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="60"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="60"/>
+      <c r="BP11" s="60"/>
+      <c r="BQ11" s="60"/>
+      <c r="BR11" s="60"/>
+      <c r="BS11" s="60"/>
+      <c r="BT11" s="60"/>
+      <c r="BU11" s="60"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="60"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B12" s="21">
         <v>1003.0</v>
@@ -7353,19 +7359,19 @@
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="52"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="52"/>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
@@ -7376,9 +7382,9 @@
         <f t="shared" si="1"/>
         <v>RT.EQU.001.REC.01.............</v>
       </c>
-      <c r="Z12" s="60"/>
+      <c r="Z12" s="61"/>
       <c r="AA12" s="32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AB12" s="52"/>
       <c r="AC12" s="52"/>
@@ -7391,7 +7397,7 @@
       <c r="AJ12" s="52"/>
       <c r="AK12" s="52"/>
       <c r="AL12" s="52"/>
-      <c r="AM12" s="61"/>
+      <c r="AM12" s="62"/>
       <c r="AN12" s="52"/>
       <c r="AO12" s="52"/>
       <c r="AP12" s="52"/>
@@ -7401,33 +7407,33 @@
       <c r="AT12" s="52"/>
       <c r="AU12" s="52"/>
       <c r="AV12" s="52"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="59"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="62"/>
+      <c r="AZ12" s="60"/>
       <c r="BA12" s="52"/>
       <c r="BB12" s="52"/>
       <c r="BC12" s="52"/>
       <c r="BD12" s="52"/>
       <c r="BE12" s="52"/>
-      <c r="BF12" s="61"/>
+      <c r="BF12" s="62"/>
       <c r="BG12" s="52"/>
       <c r="BH12" s="52"/>
-      <c r="BI12" s="61"/>
+      <c r="BI12" s="62"/>
       <c r="BJ12" s="52"/>
       <c r="BK12" s="52"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
-      <c r="BP12" s="59"/>
-      <c r="BQ12" s="59"/>
-      <c r="BR12" s="59"/>
-      <c r="BS12" s="59"/>
-      <c r="BT12" s="59"/>
-      <c r="BU12" s="59"/>
-      <c r="BV12" s="59"/>
-      <c r="BW12" s="59"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="60"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="60"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="60"/>
+      <c r="BT12" s="60"/>
+      <c r="BU12" s="60"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="60"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="47"/>
@@ -7435,19 +7441,19 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="52"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
@@ -7468,7 +7474,7 @@
       <c r="AJ13" s="52"/>
       <c r="AK13" s="52"/>
       <c r="AL13" s="52"/>
-      <c r="AM13" s="61"/>
+      <c r="AM13" s="62"/>
       <c r="AN13" s="52"/>
       <c r="AO13" s="52"/>
       <c r="AP13" s="52"/>
@@ -7478,33 +7484,33 @@
       <c r="AT13" s="52"/>
       <c r="AU13" s="52"/>
       <c r="AV13" s="52"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="59"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="62"/>
+      <c r="AZ13" s="60"/>
       <c r="BA13" s="52"/>
       <c r="BB13" s="52"/>
       <c r="BC13" s="52"/>
       <c r="BD13" s="52"/>
       <c r="BE13" s="52"/>
-      <c r="BF13" s="61"/>
+      <c r="BF13" s="62"/>
       <c r="BG13" s="52"/>
       <c r="BH13" s="52"/>
-      <c r="BI13" s="61"/>
+      <c r="BI13" s="62"/>
       <c r="BJ13" s="52"/>
       <c r="BK13" s="52"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
-      <c r="BP13" s="59"/>
-      <c r="BQ13" s="59"/>
-      <c r="BR13" s="59"/>
-      <c r="BS13" s="59"/>
-      <c r="BT13" s="59"/>
-      <c r="BU13" s="59"/>
-      <c r="BV13" s="59"/>
-      <c r="BW13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="60"/>
+      <c r="BN13" s="60"/>
+      <c r="BO13" s="60"/>
+      <c r="BP13" s="60"/>
+      <c r="BQ13" s="60"/>
+      <c r="BR13" s="60"/>
+      <c r="BS13" s="60"/>
+      <c r="BT13" s="60"/>
+      <c r="BU13" s="60"/>
+      <c r="BV13" s="60"/>
+      <c r="BW13" s="60"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="47"/>
@@ -7512,19 +7518,19 @@
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
@@ -7545,7 +7551,7 @@
       <c r="AJ14" s="52"/>
       <c r="AK14" s="52"/>
       <c r="AL14" s="52"/>
-      <c r="AM14" s="61"/>
+      <c r="AM14" s="62"/>
       <c r="AN14" s="52"/>
       <c r="AO14" s="52"/>
       <c r="AP14" s="52"/>
@@ -7555,33 +7561,33 @@
       <c r="AT14" s="52"/>
       <c r="AU14" s="52"/>
       <c r="AV14" s="52"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="59"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="60"/>
       <c r="BA14" s="52"/>
       <c r="BB14" s="52"/>
       <c r="BC14" s="52"/>
       <c r="BD14" s="52"/>
       <c r="BE14" s="52"/>
-      <c r="BF14" s="61"/>
+      <c r="BF14" s="62"/>
       <c r="BG14" s="52"/>
       <c r="BH14" s="52"/>
-      <c r="BI14" s="61"/>
+      <c r="BI14" s="62"/>
       <c r="BJ14" s="52"/>
       <c r="BK14" s="52"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
-      <c r="BO14" s="59"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="59"/>
-      <c r="BR14" s="59"/>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="59"/>
-      <c r="BU14" s="59"/>
-      <c r="BV14" s="59"/>
-      <c r="BW14" s="59"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="60"/>
+      <c r="BN14" s="60"/>
+      <c r="BO14" s="60"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="60"/>
+      <c r="BR14" s="60"/>
+      <c r="BS14" s="60"/>
+      <c r="BT14" s="60"/>
+      <c r="BU14" s="60"/>
+      <c r="BV14" s="60"/>
+      <c r="BW14" s="60"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="47"/>
@@ -7589,19 +7595,19 @@
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="52"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
       <c r="S15" s="52"/>
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
@@ -7622,7 +7628,7 @@
       <c r="AJ15" s="52"/>
       <c r="AK15" s="52"/>
       <c r="AL15" s="52"/>
-      <c r="AM15" s="61"/>
+      <c r="AM15" s="62"/>
       <c r="AN15" s="52"/>
       <c r="AO15" s="52"/>
       <c r="AP15" s="52"/>
@@ -7632,1471 +7638,1471 @@
       <c r="AT15" s="52"/>
       <c r="AU15" s="52"/>
       <c r="AV15" s="52"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="59"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="60"/>
       <c r="BA15" s="52"/>
       <c r="BB15" s="52"/>
       <c r="BC15" s="52"/>
       <c r="BD15" s="52"/>
       <c r="BE15" s="52"/>
-      <c r="BF15" s="61"/>
+      <c r="BF15" s="62"/>
       <c r="BG15" s="52"/>
       <c r="BH15" s="52"/>
-      <c r="BI15" s="61"/>
+      <c r="BI15" s="62"/>
       <c r="BJ15" s="52"/>
       <c r="BK15" s="52"/>
-      <c r="BL15" s="59"/>
-      <c r="BM15" s="59"/>
-      <c r="BN15" s="59"/>
-      <c r="BO15" s="59"/>
-      <c r="BP15" s="59"/>
-      <c r="BQ15" s="59"/>
-      <c r="BR15" s="59"/>
-      <c r="BS15" s="59"/>
-      <c r="BT15" s="59"/>
-      <c r="BU15" s="59"/>
-      <c r="BV15" s="59"/>
-      <c r="BW15" s="59"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="60"/>
+      <c r="BN15" s="60"/>
+      <c r="BO15" s="60"/>
+      <c r="BP15" s="60"/>
+      <c r="BQ15" s="60"/>
+      <c r="BR15" s="60"/>
+      <c r="BS15" s="60"/>
+      <c r="BT15" s="60"/>
+      <c r="BU15" s="60"/>
+      <c r="BV15" s="60"/>
+      <c r="BW15" s="60"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="J16" s="54"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="54"/>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
       <c r="J17" s="54"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="54"/>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
       <c r="J18" s="54"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="J19" s="54"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="54"/>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="J20" s="54"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="54"/>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="J21" s="54"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="J22" s="54"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="54"/>
       <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="J23" s="54"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="54"/>
       <c r="F24" s="54"/>
       <c r="G24" s="54"/>
       <c r="J24" s="54"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
       <c r="J25" s="54"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="J26" s="54"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="54"/>
       <c r="F27" s="54"/>
       <c r="G27" s="54"/>
       <c r="J27" s="54"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="54"/>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="J28" s="54"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="J29" s="54"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="54"/>
       <c r="J30" s="54"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="J31" s="54"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="54"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
       <c r="J32" s="54"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
       <c r="J33" s="54"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="54"/>
       <c r="F34" s="54"/>
       <c r="G34" s="54"/>
       <c r="J34" s="54"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
       <c r="J35" s="54"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="54"/>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
       <c r="J36" s="54"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="54"/>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
       <c r="J37" s="54"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="J38" s="54"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
       <c r="J39" s="54"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="J40" s="54"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="54"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="J41" s="54"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="J42" s="54"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="J43" s="54"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
       <c r="J44" s="54"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="J45" s="54"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
       <c r="J46" s="54"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="54"/>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="J47" s="54"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="J48" s="54"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="J49" s="54"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="J50" s="54"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="J51" s="54"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="J52" s="54"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="J53" s="54"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
       <c r="J54" s="54"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
       <c r="J55" s="54"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
       <c r="J56" s="54"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="J57" s="54"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
       <c r="J58" s="54"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
       <c r="J59" s="54"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
       <c r="J60" s="54"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="J61" s="54"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
       <c r="J62" s="54"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
       <c r="J63" s="54"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="54"/>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="J64" s="54"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="54"/>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
       <c r="J65" s="54"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="54"/>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
       <c r="J66" s="54"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="54"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="J67" s="54"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="54"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="J68" s="54"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="54"/>
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="J69" s="54"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="54"/>
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="J70" s="54"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="54"/>
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="J71" s="54"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="54"/>
       <c r="F72" s="54"/>
       <c r="G72" s="54"/>
       <c r="J72" s="54"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="54"/>
       <c r="F73" s="54"/>
       <c r="G73" s="54"/>
       <c r="J73" s="54"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="54"/>
       <c r="F74" s="54"/>
       <c r="G74" s="54"/>
       <c r="J74" s="54"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="54"/>
       <c r="F75" s="54"/>
       <c r="G75" s="54"/>
       <c r="J75" s="54"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="54"/>
       <c r="F76" s="54"/>
       <c r="G76" s="54"/>
       <c r="J76" s="54"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="54"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="J77" s="54"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="54"/>
       <c r="F78" s="54"/>
       <c r="G78" s="54"/>
       <c r="J78" s="54"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="54"/>
       <c r="F79" s="54"/>
       <c r="G79" s="54"/>
       <c r="J79" s="54"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="54"/>
       <c r="F80" s="54"/>
       <c r="G80" s="54"/>
       <c r="J80" s="54"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="54"/>
       <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="J81" s="54"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="54"/>
       <c r="F82" s="54"/>
       <c r="G82" s="54"/>
       <c r="J82" s="54"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="54"/>
       <c r="F83" s="54"/>
       <c r="G83" s="54"/>
       <c r="J83" s="54"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="54"/>
       <c r="F84" s="54"/>
       <c r="G84" s="54"/>
       <c r="J84" s="54"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="54"/>
       <c r="F85" s="54"/>
       <c r="G85" s="54"/>
       <c r="J85" s="54"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="54"/>
       <c r="F86" s="54"/>
       <c r="G86" s="54"/>
       <c r="J86" s="54"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="54"/>
       <c r="F87" s="54"/>
       <c r="G87" s="54"/>
       <c r="J87" s="54"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="54"/>
       <c r="F88" s="54"/>
       <c r="G88" s="54"/>
       <c r="J88" s="54"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="54"/>
       <c r="F89" s="54"/>
       <c r="G89" s="54"/>
       <c r="J89" s="54"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="54"/>
       <c r="F90" s="54"/>
       <c r="G90" s="54"/>
       <c r="J90" s="54"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="54"/>
       <c r="F91" s="54"/>
       <c r="G91" s="54"/>
       <c r="J91" s="54"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="54"/>
       <c r="F92" s="54"/>
       <c r="G92" s="54"/>
       <c r="J92" s="54"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="54"/>
       <c r="F93" s="54"/>
       <c r="G93" s="54"/>
       <c r="J93" s="54"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="54"/>
       <c r="F94" s="54"/>
       <c r="G94" s="54"/>
       <c r="J94" s="54"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="54"/>
       <c r="F95" s="54"/>
       <c r="G95" s="54"/>
       <c r="J95" s="54"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="54"/>
       <c r="F96" s="54"/>
       <c r="G96" s="54"/>
       <c r="J96" s="54"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="54"/>
       <c r="F97" s="54"/>
       <c r="G97" s="54"/>
       <c r="J97" s="54"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="54"/>
       <c r="F98" s="54"/>
       <c r="G98" s="54"/>
       <c r="J98" s="54"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="54"/>
       <c r="F99" s="54"/>
       <c r="G99" s="54"/>
       <c r="J99" s="54"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="54"/>
       <c r="F100" s="54"/>
       <c r="G100" s="54"/>
       <c r="J100" s="54"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="54"/>
       <c r="F101" s="54"/>
       <c r="G101" s="54"/>
       <c r="J101" s="54"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
       <c r="B102" s="54"/>
       <c r="F102" s="54"/>
       <c r="G102" s="54"/>
       <c r="J102" s="54"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="54"/>
       <c r="F103" s="54"/>
       <c r="G103" s="54"/>
       <c r="J103" s="54"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="54"/>
       <c r="F104" s="54"/>
       <c r="G104" s="54"/>
       <c r="J104" s="54"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="54"/>
       <c r="F105" s="54"/>
       <c r="G105" s="54"/>
       <c r="J105" s="54"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="54"/>
       <c r="F106" s="54"/>
       <c r="G106" s="54"/>
       <c r="J106" s="54"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="54"/>
       <c r="F107" s="54"/>
       <c r="G107" s="54"/>
       <c r="J107" s="54"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="54"/>
       <c r="F108" s="54"/>
       <c r="G108" s="54"/>
       <c r="J108" s="54"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="54"/>
       <c r="F109" s="54"/>
       <c r="G109" s="54"/>
       <c r="J109" s="54"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="54"/>
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
       <c r="J110" s="54"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
       <c r="B111" s="54"/>
       <c r="F111" s="54"/>
       <c r="G111" s="54"/>
       <c r="J111" s="54"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="54"/>
       <c r="F112" s="54"/>
       <c r="G112" s="54"/>
       <c r="J112" s="54"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="54"/>
       <c r="F113" s="54"/>
       <c r="G113" s="54"/>
       <c r="J113" s="54"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="54"/>
       <c r="F114" s="54"/>
       <c r="G114" s="54"/>
       <c r="J114" s="54"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="54"/>
       <c r="F115" s="54"/>
       <c r="G115" s="54"/>
       <c r="J115" s="54"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="54"/>
       <c r="F116" s="54"/>
       <c r="G116" s="54"/>
       <c r="J116" s="54"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="54"/>
       <c r="F117" s="54"/>
       <c r="G117" s="54"/>
       <c r="J117" s="54"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="54"/>
       <c r="F118" s="54"/>
       <c r="G118" s="54"/>
       <c r="J118" s="54"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="54"/>
       <c r="F119" s="54"/>
       <c r="G119" s="54"/>
       <c r="J119" s="54"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="54"/>
       <c r="F120" s="54"/>
       <c r="G120" s="54"/>
       <c r="J120" s="54"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="54"/>
       <c r="F121" s="54"/>
       <c r="G121" s="54"/>
       <c r="J121" s="54"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="54"/>
       <c r="F122" s="54"/>
       <c r="G122" s="54"/>
       <c r="J122" s="54"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="54"/>
       <c r="F123" s="54"/>
       <c r="G123" s="54"/>
       <c r="J123" s="54"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="54"/>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
       <c r="J124" s="54"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="54"/>
       <c r="F125" s="54"/>
       <c r="G125" s="54"/>
       <c r="J125" s="54"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="54"/>
       <c r="F126" s="54"/>
       <c r="G126" s="54"/>
       <c r="J126" s="54"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="54"/>
       <c r="F127" s="54"/>
       <c r="G127" s="54"/>
       <c r="J127" s="54"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="54"/>
       <c r="F128" s="54"/>
       <c r="G128" s="54"/>
       <c r="J128" s="54"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="54"/>
       <c r="F129" s="54"/>
       <c r="G129" s="54"/>
       <c r="J129" s="54"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="54"/>
       <c r="F130" s="54"/>
       <c r="G130" s="54"/>
       <c r="J130" s="54"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="63"/>
       <c r="B131" s="54"/>
       <c r="F131" s="54"/>
       <c r="G131" s="54"/>
       <c r="J131" s="54"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="63"/>
       <c r="B132" s="54"/>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
       <c r="J132" s="54"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="54"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54"/>
       <c r="J133" s="54"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="63"/>
       <c r="B134" s="54"/>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
       <c r="J134" s="54"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="63"/>
       <c r="B135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54"/>
       <c r="J135" s="54"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="63"/>
       <c r="B136" s="54"/>
       <c r="F136" s="54"/>
       <c r="G136" s="54"/>
       <c r="J136" s="54"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
       <c r="B137" s="54"/>
       <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="J137" s="54"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
       <c r="B138" s="54"/>
       <c r="F138" s="54"/>
       <c r="G138" s="54"/>
       <c r="J138" s="54"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="63"/>
       <c r="B139" s="54"/>
       <c r="F139" s="54"/>
       <c r="G139" s="54"/>
       <c r="J139" s="54"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="63"/>
       <c r="B140" s="54"/>
       <c r="F140" s="54"/>
       <c r="G140" s="54"/>
       <c r="J140" s="54"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
       <c r="B141" s="54"/>
       <c r="F141" s="54"/>
       <c r="G141" s="54"/>
       <c r="J141" s="54"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
       <c r="B142" s="54"/>
       <c r="F142" s="54"/>
       <c r="G142" s="54"/>
       <c r="J142" s="54"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
       <c r="B143" s="54"/>
       <c r="F143" s="54"/>
       <c r="G143" s="54"/>
       <c r="J143" s="54"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="54"/>
       <c r="F144" s="54"/>
       <c r="G144" s="54"/>
       <c r="J144" s="54"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="63"/>
       <c r="B145" s="54"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54"/>
       <c r="J145" s="54"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
       <c r="B146" s="54"/>
       <c r="F146" s="54"/>
       <c r="G146" s="54"/>
       <c r="J146" s="54"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
       <c r="B147" s="54"/>
       <c r="F147" s="54"/>
       <c r="G147" s="54"/>
       <c r="J147" s="54"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
       <c r="B148" s="54"/>
       <c r="F148" s="54"/>
       <c r="G148" s="54"/>
       <c r="J148" s="54"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
       <c r="B149" s="54"/>
       <c r="F149" s="54"/>
       <c r="G149" s="54"/>
       <c r="J149" s="54"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
       <c r="B150" s="54"/>
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
       <c r="J150" s="54"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="63"/>
       <c r="B151" s="54"/>
       <c r="F151" s="54"/>
       <c r="G151" s="54"/>
       <c r="J151" s="54"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="63"/>
       <c r="B152" s="54"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54"/>
       <c r="J152" s="54"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="63"/>
       <c r="B153" s="54"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54"/>
       <c r="J153" s="54"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="63"/>
       <c r="B154" s="54"/>
       <c r="F154" s="54"/>
       <c r="G154" s="54"/>
       <c r="J154" s="54"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="63"/>
       <c r="B155" s="54"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54"/>
       <c r="J155" s="54"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="63"/>
       <c r="B156" s="54"/>
       <c r="F156" s="54"/>
       <c r="G156" s="54"/>
       <c r="J156" s="54"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="63"/>
       <c r="B157" s="54"/>
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="J157" s="54"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="63"/>
       <c r="B158" s="54"/>
       <c r="F158" s="54"/>
       <c r="G158" s="54"/>
       <c r="J158" s="54"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="63"/>
       <c r="B159" s="54"/>
       <c r="F159" s="54"/>
       <c r="G159" s="54"/>
       <c r="J159" s="54"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="63"/>
       <c r="B160" s="54"/>
       <c r="F160" s="54"/>
       <c r="G160" s="54"/>
       <c r="J160" s="54"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="63"/>
       <c r="B161" s="54"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54"/>
       <c r="J161" s="54"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="63"/>
       <c r="B162" s="54"/>
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="J162" s="54"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="63"/>
       <c r="B163" s="54"/>
       <c r="F163" s="54"/>
       <c r="G163" s="54"/>
       <c r="J163" s="54"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="63"/>
       <c r="B164" s="54"/>
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
       <c r="J164" s="54"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="63"/>
       <c r="B165" s="54"/>
       <c r="F165" s="54"/>
       <c r="G165" s="54"/>
       <c r="J165" s="54"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="63"/>
       <c r="B166" s="54"/>
       <c r="F166" s="54"/>
       <c r="G166" s="54"/>
       <c r="J166" s="54"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="63"/>
       <c r="B167" s="54"/>
       <c r="F167" s="54"/>
       <c r="G167" s="54"/>
       <c r="J167" s="54"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="63"/>
       <c r="B168" s="54"/>
       <c r="F168" s="54"/>
       <c r="G168" s="54"/>
       <c r="J168" s="54"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="63"/>
       <c r="B169" s="54"/>
       <c r="F169" s="54"/>
       <c r="G169" s="54"/>
       <c r="J169" s="54"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="63"/>
       <c r="B170" s="54"/>
       <c r="F170" s="54"/>
       <c r="G170" s="54"/>
       <c r="J170" s="54"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="63"/>
       <c r="B171" s="54"/>
       <c r="F171" s="54"/>
       <c r="G171" s="54"/>
       <c r="J171" s="54"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="63"/>
       <c r="B172" s="54"/>
       <c r="F172" s="54"/>
       <c r="G172" s="54"/>
       <c r="J172" s="54"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="63"/>
       <c r="B173" s="54"/>
       <c r="F173" s="54"/>
       <c r="G173" s="54"/>
       <c r="J173" s="54"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="63"/>
       <c r="B174" s="54"/>
       <c r="F174" s="54"/>
       <c r="G174" s="54"/>
       <c r="J174" s="54"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="63"/>
       <c r="B175" s="54"/>
       <c r="F175" s="54"/>
       <c r="G175" s="54"/>
       <c r="J175" s="54"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="63"/>
       <c r="B176" s="54"/>
       <c r="F176" s="54"/>
       <c r="G176" s="54"/>
       <c r="J176" s="54"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="63"/>
       <c r="B177" s="54"/>
       <c r="F177" s="54"/>
       <c r="G177" s="54"/>
       <c r="J177" s="54"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="63"/>
       <c r="B178" s="54"/>
       <c r="F178" s="54"/>
       <c r="G178" s="54"/>
       <c r="J178" s="54"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
       <c r="B179" s="54"/>
       <c r="F179" s="54"/>
       <c r="G179" s="54"/>
       <c r="J179" s="54"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="63"/>
       <c r="B180" s="54"/>
       <c r="F180" s="54"/>
       <c r="G180" s="54"/>
       <c r="J180" s="54"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="63"/>
       <c r="B181" s="54"/>
       <c r="F181" s="54"/>
       <c r="G181" s="54"/>
       <c r="J181" s="54"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="63"/>
       <c r="B182" s="54"/>
       <c r="F182" s="54"/>
       <c r="G182" s="54"/>
       <c r="J182" s="54"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="63"/>
       <c r="B183" s="54"/>
       <c r="F183" s="54"/>
       <c r="G183" s="54"/>
       <c r="J183" s="54"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="63"/>
       <c r="B184" s="54"/>
       <c r="F184" s="54"/>
       <c r="G184" s="54"/>
       <c r="J184" s="54"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="63"/>
       <c r="B185" s="54"/>
       <c r="F185" s="54"/>
       <c r="G185" s="54"/>
       <c r="J185" s="54"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="63"/>
       <c r="B186" s="54"/>
       <c r="F186" s="54"/>
       <c r="G186" s="54"/>
       <c r="J186" s="54"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="63"/>
       <c r="B187" s="54"/>
       <c r="F187" s="54"/>
       <c r="G187" s="54"/>
       <c r="J187" s="54"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="63"/>
       <c r="B188" s="54"/>
       <c r="F188" s="54"/>
       <c r="G188" s="54"/>
       <c r="J188" s="54"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="63"/>
       <c r="B189" s="54"/>
       <c r="F189" s="54"/>
       <c r="G189" s="54"/>
       <c r="J189" s="54"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="63"/>
       <c r="B190" s="54"/>
       <c r="F190" s="54"/>
       <c r="G190" s="54"/>
       <c r="J190" s="54"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="63"/>
       <c r="B191" s="54"/>
       <c r="F191" s="54"/>
       <c r="G191" s="54"/>
       <c r="J191" s="54"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="63"/>
       <c r="B192" s="54"/>
       <c r="F192" s="54"/>
       <c r="G192" s="54"/>
       <c r="J192" s="54"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="63"/>
       <c r="B193" s="54"/>
       <c r="F193" s="54"/>
       <c r="G193" s="54"/>
       <c r="J193" s="54"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="63"/>
       <c r="B194" s="54"/>
       <c r="F194" s="54"/>
       <c r="G194" s="54"/>
       <c r="J194" s="54"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="63"/>
       <c r="B195" s="54"/>
       <c r="F195" s="54"/>
       <c r="G195" s="54"/>
       <c r="J195" s="54"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="63"/>
       <c r="B196" s="54"/>
       <c r="F196" s="54"/>
       <c r="G196" s="54"/>
       <c r="J196" s="54"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="63"/>
       <c r="B197" s="54"/>
       <c r="F197" s="54"/>
       <c r="G197" s="54"/>
       <c r="J197" s="54"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="63"/>
       <c r="B198" s="54"/>
       <c r="F198" s="54"/>
       <c r="G198" s="54"/>
       <c r="J198" s="54"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
       <c r="B199" s="54"/>
       <c r="F199" s="54"/>
       <c r="G199" s="54"/>
       <c r="J199" s="54"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="63"/>
       <c r="B200" s="54"/>
       <c r="F200" s="54"/>
       <c r="G200" s="54"/>
       <c r="J200" s="54"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="63"/>
       <c r="B201" s="54"/>
       <c r="F201" s="54"/>
       <c r="G201" s="54"/>
       <c r="J201" s="54"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="63"/>
       <c r="B202" s="54"/>
       <c r="F202" s="54"/>
       <c r="G202" s="54"/>
       <c r="J202" s="54"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="63"/>
       <c r="B203" s="54"/>
       <c r="F203" s="54"/>
       <c r="G203" s="54"/>
       <c r="J203" s="54"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="63"/>
       <c r="B204" s="54"/>
       <c r="F204" s="54"/>
       <c r="G204" s="54"/>
       <c r="J204" s="54"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="63"/>
       <c r="B205" s="54"/>
       <c r="F205" s="54"/>
       <c r="G205" s="54"/>
       <c r="J205" s="54"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="63"/>
       <c r="B206" s="54"/>
       <c r="F206" s="54"/>
       <c r="G206" s="54"/>
       <c r="J206" s="54"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="63"/>
       <c r="B207" s="54"/>
       <c r="F207" s="54"/>
       <c r="G207" s="54"/>
       <c r="J207" s="54"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="63"/>
       <c r="B208" s="54"/>
       <c r="F208" s="54"/>
       <c r="G208" s="54"/>
       <c r="J208" s="54"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="63"/>
       <c r="B209" s="54"/>
       <c r="F209" s="54"/>
       <c r="G209" s="54"/>
       <c r="J209" s="54"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="63"/>
       <c r="B210" s="54"/>
       <c r="F210" s="54"/>
       <c r="G210" s="54"/>
       <c r="J210" s="54"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="63"/>
       <c r="B211" s="54"/>
       <c r="F211" s="54"/>
       <c r="G211" s="54"/>
       <c r="J211" s="54"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="63"/>
       <c r="B212" s="54"/>
       <c r="F212" s="54"/>
       <c r="G212" s="54"/>
       <c r="J212" s="54"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="63"/>
       <c r="B213" s="54"/>
       <c r="F213" s="54"/>
       <c r="G213" s="54"/>
       <c r="J213" s="54"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="63"/>
       <c r="B214" s="54"/>
       <c r="F214" s="54"/>
       <c r="G214" s="54"/>
       <c r="J214" s="54"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="63"/>
       <c r="B215" s="54"/>
       <c r="F215" s="54"/>
       <c r="G215" s="54"/>
       <c r="J215" s="54"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="63"/>
       <c r="B216" s="54"/>
       <c r="F216" s="54"/>
       <c r="G216" s="54"/>
       <c r="J216" s="54"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="63"/>
       <c r="B217" s="54"/>
       <c r="F217" s="54"/>
       <c r="G217" s="54"/>
       <c r="J217" s="54"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="63"/>
       <c r="B218" s="54"/>
       <c r="F218" s="54"/>
       <c r="G218" s="54"/>
       <c r="J218" s="54"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="63"/>
       <c r="B219" s="54"/>
       <c r="F219" s="54"/>
       <c r="G219" s="54"/>
       <c r="J219" s="54"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="63"/>
       <c r="B220" s="54"/>
       <c r="F220" s="54"/>
       <c r="G220" s="54"/>
       <c r="J220" s="54"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="62"/>
+      <c r="A221" s="63"/>
       <c r="B221" s="54"/>
       <c r="F221" s="54"/>
       <c r="G221" s="54"/>
@@ -13814,7 +13820,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -13826,7 +13832,7 @@
       <c r="D1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>180</v>
       </c>
       <c r="F1" s="37"/>
@@ -13852,702 +13858,702 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="67"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="63"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="63"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="63"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="63"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="63"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="63"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="63"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="63"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="63"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="63"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="63"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="63"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="63"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="63"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="63"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="63"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="63"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="63"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="63"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="63"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="63"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="63"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="63"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="63"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="63"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="63"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="63"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="63"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="63"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="63"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="63"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="63"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="63"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="63"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="63"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="63"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="63"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="63"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="63"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="63"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="63"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="63"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="63"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="63"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="63"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="63"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="63"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="63"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="63"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="63"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="63"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="63"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="63"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="63"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="63"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="63"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="63"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="63"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="63"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="63"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="63"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="63"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="63"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="63"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="63"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="63"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="63"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="63"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="63"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="63"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="63"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="63"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="63"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="63"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="63"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="63"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="63"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="63"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="63"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="63"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="62"/>
+      <c r="A221" s="63"/>
     </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -15362,7 +15368,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>183</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -15374,10 +15380,10 @@
       <c r="D1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="65" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="37"/>
@@ -15402,71 +15408,71 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B7" s="19">
         <v>1004.0</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>295</v>
       </c>
       <c r="E7" s="19">
         <v>10.0</v>
@@ -15477,16 +15483,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B8" s="19">
         <v>1004.0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>297</v>
       </c>
       <c r="E8" s="19">
         <v>20.0</v>
@@ -15497,56 +15503,56 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B9" s="19">
         <v>1004.0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>299</v>
       </c>
       <c r="E9" s="19">
         <v>30.0</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B10" s="19">
         <v>1013.0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>302</v>
       </c>
       <c r="E10" s="73">
         <v>40.0</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B11" s="19">
         <v>1014.0</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="E11" s="75" t="s">
         <v>232</v>
@@ -15556,631 +15562,631 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="63"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="63"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="63"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="63"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="63"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="63"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="63"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="63"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="63"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="63"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="63"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="63"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="63"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="63"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="63"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="63"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="63"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="63"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="63"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="63"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="63"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="63"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="63"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="63"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="63"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="63"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="63"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="63"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="63"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="63"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="63"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="63"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="63"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="63"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="63"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="63"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="63"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="63"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="63"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="63"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="63"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="63"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="63"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="63"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="63"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="63"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="63"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="63"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="63"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="63"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="63"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="63"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="63"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="63"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="63"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="63"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="63"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="63"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="63"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="63"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="63"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="63"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="63"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="63"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="63"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="63"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="63"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="63"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="63"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="63"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="63"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="63"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="63"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="63"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="63"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="63"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="63"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="63"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="63"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="63"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -16993,17 +16999,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>194</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -17029,45 +17035,45 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="77"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="77"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="77"/>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="77"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="78"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -17078,7 +17084,7 @@
         <v>227</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>49</v>
@@ -17092,7 +17098,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>51</v>
@@ -17106,7 +17112,7 @@
         <v>1000.0</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -17117,636 +17123,636 @@
         <v>2000.0</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B11" s="80">
         <v>1001.0</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="79" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B12" s="80">
         <v>2001.0</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="63"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="63"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="63"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="63"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="63"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="63"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="63"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="63"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="63"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="63"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="63"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="63"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="63"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="63"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="63"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="63"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="63"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="63"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="63"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="63"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="63"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="63"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="63"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="63"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="63"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="63"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="63"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="63"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="63"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="63"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="63"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="63"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="63"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="63"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="63"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="63"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="63"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="63"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="63"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="63"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="63"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="63"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="63"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="63"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="63"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="63"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="63"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="63"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="63"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="63"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="63"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="63"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="63"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="63"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="63"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="63"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="63"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="63"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="63"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="63"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="63"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="63"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="63"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="63"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="63"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="63"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="63"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="63"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="63"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="63"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="63"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="63"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="63"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="63"/>
     </row>
     <row r="215" ht="15.75" customHeight="1"/>
     <row r="216" ht="15.75" customHeight="1"/>
@@ -18557,178 +18563,178 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="84" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="81" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="81" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="81" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="86" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="86" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -19738,57 +19744,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="88" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B2" s="91">
         <v>0.0</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" s="91">
         <v>1.0</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B4" s="91">
         <v>2.0</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B5" s="91">
         <v>3.0</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
@@ -19799,7 +19805,7 @@
         <v>249</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -19831,7 +19837,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="35"/>
       <c r="B1" s="37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -19889,646 +19895,646 @@
       <c r="B6" s="93"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="63"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="63"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="63"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="63"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="63"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="63"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="63"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="63"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="63"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="63"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="63"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="63"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="63"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="63"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="63"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="63"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="63"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="63"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="63"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="63"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="63"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="63"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="63"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="63"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="63"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="63"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="63"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="63"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="63"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="63"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="63"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="63"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="63"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="63"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="63"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="63"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="63"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="63"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="63"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="63"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="63"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="63"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="63"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="63"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="63"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="63"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="63"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="63"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="63"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="63"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="63"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="63"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="63"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="63"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="63"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="63"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="63"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="63"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="63"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="63"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="63"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="63"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="63"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="63"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="63"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="63"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="63"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="63"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="63"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="63"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="63"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="63"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="63"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="63"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="63"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="63"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="63"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="63"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="63"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="63"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="63"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="63"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="63"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="63"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="63"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="63"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="63"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="63"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="63"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="63"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="63"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="63"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="63"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="63"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="63"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="63"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="63"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="63"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="63"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="63"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="63"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="63"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="63"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="63"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="63"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="63"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="63"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="63"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="63"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="63"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="63"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="63"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="63"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="63"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
